--- a/datasets/Received-remittances.xlsx
+++ b/datasets/Received-remittances.xlsx
@@ -1,30 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjcmarseille\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grégory PINCHINAT\Documents\88-mem-var\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55870537-AF80-4E3A-B48F-C3C99D4ADC35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="transfers" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="308">
   <si>
     <t>En dollars EU</t>
   </si>
@@ -567,16 +575,397 @@
   </si>
   <si>
     <t>Haïti :   transferts reçus par pays</t>
+  </si>
+  <si>
+    <t>2009M10</t>
+  </si>
+  <si>
+    <t>2009M11</t>
+  </si>
+  <si>
+    <t>2009M12</t>
+  </si>
+  <si>
+    <t>2010M1</t>
+  </si>
+  <si>
+    <t>2010M2</t>
+  </si>
+  <si>
+    <t>2010M3</t>
+  </si>
+  <si>
+    <t>2010M4</t>
+  </si>
+  <si>
+    <t>2010M5</t>
+  </si>
+  <si>
+    <t>2010M6</t>
+  </si>
+  <si>
+    <t>2010M7</t>
+  </si>
+  <si>
+    <t>2010M8</t>
+  </si>
+  <si>
+    <t>2010M9</t>
+  </si>
+  <si>
+    <t>2010M10</t>
+  </si>
+  <si>
+    <t>2010M11</t>
+  </si>
+  <si>
+    <t>2010M12</t>
+  </si>
+  <si>
+    <t>2011M1</t>
+  </si>
+  <si>
+    <t>2011M2</t>
+  </si>
+  <si>
+    <t>2011M3</t>
+  </si>
+  <si>
+    <t>2011M4</t>
+  </si>
+  <si>
+    <t>2011M5</t>
+  </si>
+  <si>
+    <t>2011M6</t>
+  </si>
+  <si>
+    <t>2011M7</t>
+  </si>
+  <si>
+    <t>2011M8</t>
+  </si>
+  <si>
+    <t>2011M9</t>
+  </si>
+  <si>
+    <t>2011M10</t>
+  </si>
+  <si>
+    <t>2011M11</t>
+  </si>
+  <si>
+    <t>2011M12</t>
+  </si>
+  <si>
+    <t>2012M1</t>
+  </si>
+  <si>
+    <t>2012M2</t>
+  </si>
+  <si>
+    <t>2012M3</t>
+  </si>
+  <si>
+    <t>2012M4</t>
+  </si>
+  <si>
+    <t>2012M5</t>
+  </si>
+  <si>
+    <t>2012M6</t>
+  </si>
+  <si>
+    <t>2012M7</t>
+  </si>
+  <si>
+    <t>2012M8</t>
+  </si>
+  <si>
+    <t>2012M9</t>
+  </si>
+  <si>
+    <t>2012M10</t>
+  </si>
+  <si>
+    <t>2012M11</t>
+  </si>
+  <si>
+    <t>2012M12</t>
+  </si>
+  <si>
+    <t>2013M1</t>
+  </si>
+  <si>
+    <t>2013M2</t>
+  </si>
+  <si>
+    <t>2013M3</t>
+  </si>
+  <si>
+    <t>2013M4</t>
+  </si>
+  <si>
+    <t>2013M5</t>
+  </si>
+  <si>
+    <t>2013M6</t>
+  </si>
+  <si>
+    <t>2013M7</t>
+  </si>
+  <si>
+    <t>2013M8</t>
+  </si>
+  <si>
+    <t>2013M9</t>
+  </si>
+  <si>
+    <t>2013M10</t>
+  </si>
+  <si>
+    <t>2013M11</t>
+  </si>
+  <si>
+    <t>2013M12</t>
+  </si>
+  <si>
+    <t>2014M1</t>
+  </si>
+  <si>
+    <t>2014M2</t>
+  </si>
+  <si>
+    <t>2014M3</t>
+  </si>
+  <si>
+    <t>2014M4</t>
+  </si>
+  <si>
+    <t>2014M5</t>
+  </si>
+  <si>
+    <t>2014M6</t>
+  </si>
+  <si>
+    <t>2014M7</t>
+  </si>
+  <si>
+    <t>2014M8</t>
+  </si>
+  <si>
+    <t>2014M9</t>
+  </si>
+  <si>
+    <t>2014M10</t>
+  </si>
+  <si>
+    <t>2014M11</t>
+  </si>
+  <si>
+    <t>2014M12</t>
+  </si>
+  <si>
+    <t>2015M1</t>
+  </si>
+  <si>
+    <t>2015M2</t>
+  </si>
+  <si>
+    <t>2015M3</t>
+  </si>
+  <si>
+    <t>2015M4</t>
+  </si>
+  <si>
+    <t>2015M5</t>
+  </si>
+  <si>
+    <t>2015M6</t>
+  </si>
+  <si>
+    <t>2015M7</t>
+  </si>
+  <si>
+    <t>2015M8</t>
+  </si>
+  <si>
+    <t>2015M9</t>
+  </si>
+  <si>
+    <t>2015M10</t>
+  </si>
+  <si>
+    <t>2015M11</t>
+  </si>
+  <si>
+    <t>2015M12</t>
+  </si>
+  <si>
+    <t>2016M1</t>
+  </si>
+  <si>
+    <t>2016M2</t>
+  </si>
+  <si>
+    <t>2016M3</t>
+  </si>
+  <si>
+    <t>2016M4</t>
+  </si>
+  <si>
+    <t>2016M5</t>
+  </si>
+  <si>
+    <t>2016M6</t>
+  </si>
+  <si>
+    <t>2016M7</t>
+  </si>
+  <si>
+    <t>2016M8</t>
+  </si>
+  <si>
+    <t>2016M9</t>
+  </si>
+  <si>
+    <t>2016M10</t>
+  </si>
+  <si>
+    <t>2016M11</t>
+  </si>
+  <si>
+    <t>2016M12</t>
+  </si>
+  <si>
+    <t>2017M1</t>
+  </si>
+  <si>
+    <t>2017M2</t>
+  </si>
+  <si>
+    <t>2017M3</t>
+  </si>
+  <si>
+    <t>2017M4</t>
+  </si>
+  <si>
+    <t>2017M5</t>
+  </si>
+  <si>
+    <t>2017M6</t>
+  </si>
+  <si>
+    <t>2017M7</t>
+  </si>
+  <si>
+    <t>2017M8</t>
+  </si>
+  <si>
+    <t>2017M9</t>
+  </si>
+  <si>
+    <t>2017M10</t>
+  </si>
+  <si>
+    <t>2017M11</t>
+  </si>
+  <si>
+    <t>2017M12</t>
+  </si>
+  <si>
+    <t>2018M1</t>
+  </si>
+  <si>
+    <t>2018M2</t>
+  </si>
+  <si>
+    <t>2018M3</t>
+  </si>
+  <si>
+    <t>2018M4</t>
+  </si>
+  <si>
+    <t>2018M5</t>
+  </si>
+  <si>
+    <t>2018M6</t>
+  </si>
+  <si>
+    <t>2018M7</t>
+  </si>
+  <si>
+    <t>2018M8</t>
+  </si>
+  <si>
+    <t>2018M9</t>
+  </si>
+  <si>
+    <t>2018M10</t>
+  </si>
+  <si>
+    <t>2018M11</t>
+  </si>
+  <si>
+    <t>2018M12</t>
+  </si>
+  <si>
+    <t>2019M1</t>
+  </si>
+  <si>
+    <t>2019M2</t>
+  </si>
+  <si>
+    <t>2019M3</t>
+  </si>
+  <si>
+    <t>2019M4</t>
+  </si>
+  <si>
+    <t>2019M5</t>
+  </si>
+  <si>
+    <t>2019M6</t>
+  </si>
+  <si>
+    <t>2019M7</t>
+  </si>
+  <si>
+    <t>2019M8</t>
+  </si>
+  <si>
+    <t>2019M9</t>
+  </si>
+  <si>
+    <t>2019M10</t>
+  </si>
+  <si>
+    <t>2019M11</t>
+  </si>
+  <si>
+    <t>2019M12</t>
+  </si>
+  <si>
+    <t>2020M1</t>
+  </si>
+  <si>
+    <t>2020M2</t>
+  </si>
+  <si>
+    <t>2020M3</t>
+  </si>
+  <si>
+    <t>tot_in_formal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,6 +1080,12 @@
     <font>
       <b/>
       <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1189,660 +1584,660 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="32" customWidth="1"/>
-    <col min="2" max="9" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="2" customWidth="1"/>
-    <col min="12" max="13" width="13.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="28.28515625" customWidth="1"/>
-    <col min="226" max="233" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="234" max="234" width="13.5703125" customWidth="1"/>
-    <col min="235" max="235" width="13.42578125" customWidth="1"/>
-    <col min="236" max="237" width="13.5703125" customWidth="1"/>
-    <col min="238" max="238" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="239" max="239" width="8.7109375" customWidth="1"/>
-    <col min="240" max="240" width="15.28515625" customWidth="1"/>
-    <col min="241" max="242" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="245" max="245" width="18.140625" customWidth="1"/>
-    <col min="481" max="481" width="28.28515625" customWidth="1"/>
-    <col min="482" max="489" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="490" max="490" width="13.5703125" customWidth="1"/>
-    <col min="491" max="491" width="13.42578125" customWidth="1"/>
-    <col min="492" max="493" width="13.5703125" customWidth="1"/>
-    <col min="494" max="494" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="495" max="495" width="8.7109375" customWidth="1"/>
-    <col min="496" max="496" width="15.28515625" customWidth="1"/>
-    <col min="497" max="498" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="501" max="501" width="18.140625" customWidth="1"/>
-    <col min="737" max="737" width="28.28515625" customWidth="1"/>
-    <col min="738" max="745" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="746" max="746" width="13.5703125" customWidth="1"/>
-    <col min="747" max="747" width="13.42578125" customWidth="1"/>
-    <col min="748" max="749" width="13.5703125" customWidth="1"/>
-    <col min="750" max="750" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="751" max="751" width="8.7109375" customWidth="1"/>
-    <col min="752" max="752" width="15.28515625" customWidth="1"/>
-    <col min="753" max="754" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="757" max="757" width="18.140625" customWidth="1"/>
-    <col min="993" max="993" width="28.28515625" customWidth="1"/>
-    <col min="994" max="1001" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="1002" max="1002" width="13.5703125" customWidth="1"/>
-    <col min="1003" max="1003" width="13.42578125" customWidth="1"/>
-    <col min="1004" max="1005" width="13.5703125" customWidth="1"/>
-    <col min="1006" max="1006" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="1007" max="1007" width="8.7109375" customWidth="1"/>
-    <col min="1008" max="1008" width="15.28515625" customWidth="1"/>
-    <col min="1009" max="1010" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="1013" max="1013" width="18.140625" customWidth="1"/>
-    <col min="1249" max="1249" width="28.28515625" customWidth="1"/>
-    <col min="1250" max="1257" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="1258" max="1258" width="13.5703125" customWidth="1"/>
-    <col min="1259" max="1259" width="13.42578125" customWidth="1"/>
-    <col min="1260" max="1261" width="13.5703125" customWidth="1"/>
-    <col min="1262" max="1262" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="1263" max="1263" width="8.7109375" customWidth="1"/>
-    <col min="1264" max="1264" width="15.28515625" customWidth="1"/>
-    <col min="1265" max="1266" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="1269" max="1269" width="18.140625" customWidth="1"/>
-    <col min="1505" max="1505" width="28.28515625" customWidth="1"/>
-    <col min="1506" max="1513" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="1514" max="1514" width="13.5703125" customWidth="1"/>
-    <col min="1515" max="1515" width="13.42578125" customWidth="1"/>
-    <col min="1516" max="1517" width="13.5703125" customWidth="1"/>
-    <col min="1518" max="1518" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="1519" max="1519" width="8.7109375" customWidth="1"/>
-    <col min="1520" max="1520" width="15.28515625" customWidth="1"/>
-    <col min="1521" max="1522" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="1525" max="1525" width="18.140625" customWidth="1"/>
-    <col min="1761" max="1761" width="28.28515625" customWidth="1"/>
-    <col min="1762" max="1769" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="1770" max="1770" width="13.5703125" customWidth="1"/>
-    <col min="1771" max="1771" width="13.42578125" customWidth="1"/>
-    <col min="1772" max="1773" width="13.5703125" customWidth="1"/>
-    <col min="1774" max="1774" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="1775" max="1775" width="8.7109375" customWidth="1"/>
-    <col min="1776" max="1776" width="15.28515625" customWidth="1"/>
-    <col min="1777" max="1778" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="1781" max="1781" width="18.140625" customWidth="1"/>
-    <col min="2017" max="2017" width="28.28515625" customWidth="1"/>
-    <col min="2018" max="2025" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2026" max="2026" width="13.5703125" customWidth="1"/>
-    <col min="2027" max="2027" width="13.42578125" customWidth="1"/>
-    <col min="2028" max="2029" width="13.5703125" customWidth="1"/>
-    <col min="2030" max="2030" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2031" max="2031" width="8.7109375" customWidth="1"/>
-    <col min="2032" max="2032" width="15.28515625" customWidth="1"/>
-    <col min="2033" max="2034" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2037" max="2037" width="18.140625" customWidth="1"/>
-    <col min="2273" max="2273" width="28.28515625" customWidth="1"/>
-    <col min="2274" max="2281" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2282" max="2282" width="13.5703125" customWidth="1"/>
-    <col min="2283" max="2283" width="13.42578125" customWidth="1"/>
-    <col min="2284" max="2285" width="13.5703125" customWidth="1"/>
-    <col min="2286" max="2286" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2287" max="2287" width="8.7109375" customWidth="1"/>
-    <col min="2288" max="2288" width="15.28515625" customWidth="1"/>
-    <col min="2289" max="2290" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2293" max="2293" width="18.140625" customWidth="1"/>
-    <col min="2529" max="2529" width="28.28515625" customWidth="1"/>
-    <col min="2530" max="2537" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2538" max="2538" width="13.5703125" customWidth="1"/>
-    <col min="2539" max="2539" width="13.42578125" customWidth="1"/>
-    <col min="2540" max="2541" width="13.5703125" customWidth="1"/>
-    <col min="2542" max="2542" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2543" max="2543" width="8.7109375" customWidth="1"/>
-    <col min="2544" max="2544" width="15.28515625" customWidth="1"/>
-    <col min="2545" max="2546" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2549" max="2549" width="18.140625" customWidth="1"/>
-    <col min="2785" max="2785" width="28.28515625" customWidth="1"/>
-    <col min="2786" max="2793" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2794" max="2794" width="13.5703125" customWidth="1"/>
-    <col min="2795" max="2795" width="13.42578125" customWidth="1"/>
-    <col min="2796" max="2797" width="13.5703125" customWidth="1"/>
-    <col min="2798" max="2798" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2799" max="2799" width="8.7109375" customWidth="1"/>
-    <col min="2800" max="2800" width="15.28515625" customWidth="1"/>
-    <col min="2801" max="2802" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2805" max="2805" width="18.140625" customWidth="1"/>
-    <col min="3041" max="3041" width="28.28515625" customWidth="1"/>
-    <col min="3042" max="3049" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3050" max="3050" width="13.5703125" customWidth="1"/>
-    <col min="3051" max="3051" width="13.42578125" customWidth="1"/>
-    <col min="3052" max="3053" width="13.5703125" customWidth="1"/>
-    <col min="3054" max="3054" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3055" max="3055" width="8.7109375" customWidth="1"/>
-    <col min="3056" max="3056" width="15.28515625" customWidth="1"/>
-    <col min="3057" max="3058" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3061" max="3061" width="18.140625" customWidth="1"/>
-    <col min="3297" max="3297" width="28.28515625" customWidth="1"/>
-    <col min="3298" max="3305" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3306" max="3306" width="13.5703125" customWidth="1"/>
-    <col min="3307" max="3307" width="13.42578125" customWidth="1"/>
-    <col min="3308" max="3309" width="13.5703125" customWidth="1"/>
-    <col min="3310" max="3310" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3311" max="3311" width="8.7109375" customWidth="1"/>
-    <col min="3312" max="3312" width="15.28515625" customWidth="1"/>
-    <col min="3313" max="3314" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3317" max="3317" width="18.140625" customWidth="1"/>
-    <col min="3553" max="3553" width="28.28515625" customWidth="1"/>
-    <col min="3554" max="3561" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3562" max="3562" width="13.5703125" customWidth="1"/>
-    <col min="3563" max="3563" width="13.42578125" customWidth="1"/>
-    <col min="3564" max="3565" width="13.5703125" customWidth="1"/>
-    <col min="3566" max="3566" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3567" max="3567" width="8.7109375" customWidth="1"/>
-    <col min="3568" max="3568" width="15.28515625" customWidth="1"/>
-    <col min="3569" max="3570" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3573" max="3573" width="18.140625" customWidth="1"/>
-    <col min="3809" max="3809" width="28.28515625" customWidth="1"/>
-    <col min="3810" max="3817" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3818" max="3818" width="13.5703125" customWidth="1"/>
-    <col min="3819" max="3819" width="13.42578125" customWidth="1"/>
-    <col min="3820" max="3821" width="13.5703125" customWidth="1"/>
-    <col min="3822" max="3822" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3823" max="3823" width="8.7109375" customWidth="1"/>
-    <col min="3824" max="3824" width="15.28515625" customWidth="1"/>
-    <col min="3825" max="3826" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3829" max="3829" width="18.140625" customWidth="1"/>
-    <col min="4065" max="4065" width="28.28515625" customWidth="1"/>
-    <col min="4066" max="4073" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4074" max="4074" width="13.5703125" customWidth="1"/>
-    <col min="4075" max="4075" width="13.42578125" customWidth="1"/>
-    <col min="4076" max="4077" width="13.5703125" customWidth="1"/>
-    <col min="4078" max="4078" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4079" max="4079" width="8.7109375" customWidth="1"/>
-    <col min="4080" max="4080" width="15.28515625" customWidth="1"/>
-    <col min="4081" max="4082" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4085" max="4085" width="18.140625" customWidth="1"/>
-    <col min="4321" max="4321" width="28.28515625" customWidth="1"/>
-    <col min="4322" max="4329" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4330" max="4330" width="13.5703125" customWidth="1"/>
-    <col min="4331" max="4331" width="13.42578125" customWidth="1"/>
-    <col min="4332" max="4333" width="13.5703125" customWidth="1"/>
-    <col min="4334" max="4334" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4335" max="4335" width="8.7109375" customWidth="1"/>
-    <col min="4336" max="4336" width="15.28515625" customWidth="1"/>
-    <col min="4337" max="4338" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4341" max="4341" width="18.140625" customWidth="1"/>
-    <col min="4577" max="4577" width="28.28515625" customWidth="1"/>
-    <col min="4578" max="4585" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4586" max="4586" width="13.5703125" customWidth="1"/>
-    <col min="4587" max="4587" width="13.42578125" customWidth="1"/>
-    <col min="4588" max="4589" width="13.5703125" customWidth="1"/>
-    <col min="4590" max="4590" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4591" max="4591" width="8.7109375" customWidth="1"/>
-    <col min="4592" max="4592" width="15.28515625" customWidth="1"/>
-    <col min="4593" max="4594" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4597" max="4597" width="18.140625" customWidth="1"/>
-    <col min="4833" max="4833" width="28.28515625" customWidth="1"/>
-    <col min="4834" max="4841" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4842" max="4842" width="13.5703125" customWidth="1"/>
-    <col min="4843" max="4843" width="13.42578125" customWidth="1"/>
-    <col min="4844" max="4845" width="13.5703125" customWidth="1"/>
-    <col min="4846" max="4846" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4847" max="4847" width="8.7109375" customWidth="1"/>
-    <col min="4848" max="4848" width="15.28515625" customWidth="1"/>
-    <col min="4849" max="4850" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4853" max="4853" width="18.140625" customWidth="1"/>
-    <col min="5089" max="5089" width="28.28515625" customWidth="1"/>
-    <col min="5090" max="5097" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5098" max="5098" width="13.5703125" customWidth="1"/>
-    <col min="5099" max="5099" width="13.42578125" customWidth="1"/>
-    <col min="5100" max="5101" width="13.5703125" customWidth="1"/>
-    <col min="5102" max="5102" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5103" max="5103" width="8.7109375" customWidth="1"/>
-    <col min="5104" max="5104" width="15.28515625" customWidth="1"/>
-    <col min="5105" max="5106" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5109" max="5109" width="18.140625" customWidth="1"/>
-    <col min="5345" max="5345" width="28.28515625" customWidth="1"/>
-    <col min="5346" max="5353" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5354" max="5354" width="13.5703125" customWidth="1"/>
-    <col min="5355" max="5355" width="13.42578125" customWidth="1"/>
-    <col min="5356" max="5357" width="13.5703125" customWidth="1"/>
-    <col min="5358" max="5358" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5359" max="5359" width="8.7109375" customWidth="1"/>
-    <col min="5360" max="5360" width="15.28515625" customWidth="1"/>
-    <col min="5361" max="5362" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5365" max="5365" width="18.140625" customWidth="1"/>
-    <col min="5601" max="5601" width="28.28515625" customWidth="1"/>
-    <col min="5602" max="5609" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5610" max="5610" width="13.5703125" customWidth="1"/>
-    <col min="5611" max="5611" width="13.42578125" customWidth="1"/>
-    <col min="5612" max="5613" width="13.5703125" customWidth="1"/>
-    <col min="5614" max="5614" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5615" max="5615" width="8.7109375" customWidth="1"/>
-    <col min="5616" max="5616" width="15.28515625" customWidth="1"/>
-    <col min="5617" max="5618" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5621" max="5621" width="18.140625" customWidth="1"/>
-    <col min="5857" max="5857" width="28.28515625" customWidth="1"/>
-    <col min="5858" max="5865" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5866" max="5866" width="13.5703125" customWidth="1"/>
-    <col min="5867" max="5867" width="13.42578125" customWidth="1"/>
-    <col min="5868" max="5869" width="13.5703125" customWidth="1"/>
-    <col min="5870" max="5870" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5871" max="5871" width="8.7109375" customWidth="1"/>
-    <col min="5872" max="5872" width="15.28515625" customWidth="1"/>
-    <col min="5873" max="5874" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5877" max="5877" width="18.140625" customWidth="1"/>
-    <col min="6113" max="6113" width="28.28515625" customWidth="1"/>
-    <col min="6114" max="6121" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6122" max="6122" width="13.5703125" customWidth="1"/>
-    <col min="6123" max="6123" width="13.42578125" customWidth="1"/>
-    <col min="6124" max="6125" width="13.5703125" customWidth="1"/>
-    <col min="6126" max="6126" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6127" max="6127" width="8.7109375" customWidth="1"/>
-    <col min="6128" max="6128" width="15.28515625" customWidth="1"/>
-    <col min="6129" max="6130" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6133" max="6133" width="18.140625" customWidth="1"/>
-    <col min="6369" max="6369" width="28.28515625" customWidth="1"/>
-    <col min="6370" max="6377" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6378" max="6378" width="13.5703125" customWidth="1"/>
-    <col min="6379" max="6379" width="13.42578125" customWidth="1"/>
-    <col min="6380" max="6381" width="13.5703125" customWidth="1"/>
-    <col min="6382" max="6382" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6383" max="6383" width="8.7109375" customWidth="1"/>
-    <col min="6384" max="6384" width="15.28515625" customWidth="1"/>
-    <col min="6385" max="6386" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6389" max="6389" width="18.140625" customWidth="1"/>
-    <col min="6625" max="6625" width="28.28515625" customWidth="1"/>
-    <col min="6626" max="6633" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6634" max="6634" width="13.5703125" customWidth="1"/>
-    <col min="6635" max="6635" width="13.42578125" customWidth="1"/>
-    <col min="6636" max="6637" width="13.5703125" customWidth="1"/>
-    <col min="6638" max="6638" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6639" max="6639" width="8.7109375" customWidth="1"/>
-    <col min="6640" max="6640" width="15.28515625" customWidth="1"/>
-    <col min="6641" max="6642" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6645" max="6645" width="18.140625" customWidth="1"/>
-    <col min="6881" max="6881" width="28.28515625" customWidth="1"/>
-    <col min="6882" max="6889" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6890" max="6890" width="13.5703125" customWidth="1"/>
-    <col min="6891" max="6891" width="13.42578125" customWidth="1"/>
-    <col min="6892" max="6893" width="13.5703125" customWidth="1"/>
-    <col min="6894" max="6894" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6895" max="6895" width="8.7109375" customWidth="1"/>
-    <col min="6896" max="6896" width="15.28515625" customWidth="1"/>
-    <col min="6897" max="6898" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6901" max="6901" width="18.140625" customWidth="1"/>
-    <col min="7137" max="7137" width="28.28515625" customWidth="1"/>
-    <col min="7138" max="7145" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7146" max="7146" width="13.5703125" customWidth="1"/>
-    <col min="7147" max="7147" width="13.42578125" customWidth="1"/>
-    <col min="7148" max="7149" width="13.5703125" customWidth="1"/>
-    <col min="7150" max="7150" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7151" max="7151" width="8.7109375" customWidth="1"/>
-    <col min="7152" max="7152" width="15.28515625" customWidth="1"/>
-    <col min="7153" max="7154" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7157" max="7157" width="18.140625" customWidth="1"/>
-    <col min="7393" max="7393" width="28.28515625" customWidth="1"/>
-    <col min="7394" max="7401" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7402" max="7402" width="13.5703125" customWidth="1"/>
-    <col min="7403" max="7403" width="13.42578125" customWidth="1"/>
-    <col min="7404" max="7405" width="13.5703125" customWidth="1"/>
-    <col min="7406" max="7406" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7407" max="7407" width="8.7109375" customWidth="1"/>
-    <col min="7408" max="7408" width="15.28515625" customWidth="1"/>
-    <col min="7409" max="7410" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7413" max="7413" width="18.140625" customWidth="1"/>
-    <col min="7649" max="7649" width="28.28515625" customWidth="1"/>
-    <col min="7650" max="7657" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7658" max="7658" width="13.5703125" customWidth="1"/>
-    <col min="7659" max="7659" width="13.42578125" customWidth="1"/>
-    <col min="7660" max="7661" width="13.5703125" customWidth="1"/>
-    <col min="7662" max="7662" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7663" max="7663" width="8.7109375" customWidth="1"/>
-    <col min="7664" max="7664" width="15.28515625" customWidth="1"/>
-    <col min="7665" max="7666" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7669" max="7669" width="18.140625" customWidth="1"/>
-    <col min="7905" max="7905" width="28.28515625" customWidth="1"/>
-    <col min="7906" max="7913" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7914" max="7914" width="13.5703125" customWidth="1"/>
-    <col min="7915" max="7915" width="13.42578125" customWidth="1"/>
-    <col min="7916" max="7917" width="13.5703125" customWidth="1"/>
-    <col min="7918" max="7918" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7919" max="7919" width="8.7109375" customWidth="1"/>
-    <col min="7920" max="7920" width="15.28515625" customWidth="1"/>
-    <col min="7921" max="7922" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7925" max="7925" width="18.140625" customWidth="1"/>
-    <col min="8161" max="8161" width="28.28515625" customWidth="1"/>
-    <col min="8162" max="8169" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8170" max="8170" width="13.5703125" customWidth="1"/>
-    <col min="8171" max="8171" width="13.42578125" customWidth="1"/>
-    <col min="8172" max="8173" width="13.5703125" customWidth="1"/>
-    <col min="8174" max="8174" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8175" max="8175" width="8.7109375" customWidth="1"/>
-    <col min="8176" max="8176" width="15.28515625" customWidth="1"/>
-    <col min="8177" max="8178" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8181" max="8181" width="18.140625" customWidth="1"/>
-    <col min="8417" max="8417" width="28.28515625" customWidth="1"/>
-    <col min="8418" max="8425" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8426" max="8426" width="13.5703125" customWidth="1"/>
-    <col min="8427" max="8427" width="13.42578125" customWidth="1"/>
-    <col min="8428" max="8429" width="13.5703125" customWidth="1"/>
-    <col min="8430" max="8430" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8431" max="8431" width="8.7109375" customWidth="1"/>
-    <col min="8432" max="8432" width="15.28515625" customWidth="1"/>
-    <col min="8433" max="8434" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8437" max="8437" width="18.140625" customWidth="1"/>
-    <col min="8673" max="8673" width="28.28515625" customWidth="1"/>
-    <col min="8674" max="8681" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8682" max="8682" width="13.5703125" customWidth="1"/>
-    <col min="8683" max="8683" width="13.42578125" customWidth="1"/>
-    <col min="8684" max="8685" width="13.5703125" customWidth="1"/>
-    <col min="8686" max="8686" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8687" max="8687" width="8.7109375" customWidth="1"/>
-    <col min="8688" max="8688" width="15.28515625" customWidth="1"/>
-    <col min="8689" max="8690" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8693" max="8693" width="18.140625" customWidth="1"/>
-    <col min="8929" max="8929" width="28.28515625" customWidth="1"/>
-    <col min="8930" max="8937" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8938" max="8938" width="13.5703125" customWidth="1"/>
-    <col min="8939" max="8939" width="13.42578125" customWidth="1"/>
-    <col min="8940" max="8941" width="13.5703125" customWidth="1"/>
-    <col min="8942" max="8942" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8943" max="8943" width="8.7109375" customWidth="1"/>
-    <col min="8944" max="8944" width="15.28515625" customWidth="1"/>
-    <col min="8945" max="8946" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8949" max="8949" width="18.140625" customWidth="1"/>
-    <col min="9185" max="9185" width="28.28515625" customWidth="1"/>
-    <col min="9186" max="9193" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9194" max="9194" width="13.5703125" customWidth="1"/>
-    <col min="9195" max="9195" width="13.42578125" customWidth="1"/>
-    <col min="9196" max="9197" width="13.5703125" customWidth="1"/>
-    <col min="9198" max="9198" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9199" max="9199" width="8.7109375" customWidth="1"/>
-    <col min="9200" max="9200" width="15.28515625" customWidth="1"/>
-    <col min="9201" max="9202" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9205" max="9205" width="18.140625" customWidth="1"/>
-    <col min="9441" max="9441" width="28.28515625" customWidth="1"/>
-    <col min="9442" max="9449" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9450" max="9450" width="13.5703125" customWidth="1"/>
-    <col min="9451" max="9451" width="13.42578125" customWidth="1"/>
-    <col min="9452" max="9453" width="13.5703125" customWidth="1"/>
-    <col min="9454" max="9454" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9455" max="9455" width="8.7109375" customWidth="1"/>
-    <col min="9456" max="9456" width="15.28515625" customWidth="1"/>
-    <col min="9457" max="9458" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9461" max="9461" width="18.140625" customWidth="1"/>
-    <col min="9697" max="9697" width="28.28515625" customWidth="1"/>
-    <col min="9698" max="9705" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9706" max="9706" width="13.5703125" customWidth="1"/>
-    <col min="9707" max="9707" width="13.42578125" customWidth="1"/>
-    <col min="9708" max="9709" width="13.5703125" customWidth="1"/>
-    <col min="9710" max="9710" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9711" max="9711" width="8.7109375" customWidth="1"/>
-    <col min="9712" max="9712" width="15.28515625" customWidth="1"/>
-    <col min="9713" max="9714" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9717" max="9717" width="18.140625" customWidth="1"/>
-    <col min="9953" max="9953" width="28.28515625" customWidth="1"/>
-    <col min="9954" max="9961" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9962" max="9962" width="13.5703125" customWidth="1"/>
-    <col min="9963" max="9963" width="13.42578125" customWidth="1"/>
-    <col min="9964" max="9965" width="13.5703125" customWidth="1"/>
-    <col min="9966" max="9966" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9967" max="9967" width="8.7109375" customWidth="1"/>
-    <col min="9968" max="9968" width="15.28515625" customWidth="1"/>
-    <col min="9969" max="9970" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9973" max="9973" width="18.140625" customWidth="1"/>
-    <col min="10209" max="10209" width="28.28515625" customWidth="1"/>
-    <col min="10210" max="10217" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10218" max="10218" width="13.5703125" customWidth="1"/>
-    <col min="10219" max="10219" width="13.42578125" customWidth="1"/>
-    <col min="10220" max="10221" width="13.5703125" customWidth="1"/>
-    <col min="10222" max="10222" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10223" max="10223" width="8.7109375" customWidth="1"/>
-    <col min="10224" max="10224" width="15.28515625" customWidth="1"/>
-    <col min="10225" max="10226" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10229" max="10229" width="18.140625" customWidth="1"/>
-    <col min="10465" max="10465" width="28.28515625" customWidth="1"/>
-    <col min="10466" max="10473" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10474" max="10474" width="13.5703125" customWidth="1"/>
-    <col min="10475" max="10475" width="13.42578125" customWidth="1"/>
-    <col min="10476" max="10477" width="13.5703125" customWidth="1"/>
-    <col min="10478" max="10478" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10479" max="10479" width="8.7109375" customWidth="1"/>
-    <col min="10480" max="10480" width="15.28515625" customWidth="1"/>
-    <col min="10481" max="10482" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10485" max="10485" width="18.140625" customWidth="1"/>
-    <col min="10721" max="10721" width="28.28515625" customWidth="1"/>
-    <col min="10722" max="10729" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10730" max="10730" width="13.5703125" customWidth="1"/>
-    <col min="10731" max="10731" width="13.42578125" customWidth="1"/>
-    <col min="10732" max="10733" width="13.5703125" customWidth="1"/>
-    <col min="10734" max="10734" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10735" max="10735" width="8.7109375" customWidth="1"/>
-    <col min="10736" max="10736" width="15.28515625" customWidth="1"/>
-    <col min="10737" max="10738" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10741" max="10741" width="18.140625" customWidth="1"/>
-    <col min="10977" max="10977" width="28.28515625" customWidth="1"/>
-    <col min="10978" max="10985" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10986" max="10986" width="13.5703125" customWidth="1"/>
-    <col min="10987" max="10987" width="13.42578125" customWidth="1"/>
-    <col min="10988" max="10989" width="13.5703125" customWidth="1"/>
-    <col min="10990" max="10990" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10991" max="10991" width="8.7109375" customWidth="1"/>
-    <col min="10992" max="10992" width="15.28515625" customWidth="1"/>
-    <col min="10993" max="10994" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10997" max="10997" width="18.140625" customWidth="1"/>
-    <col min="11233" max="11233" width="28.28515625" customWidth="1"/>
-    <col min="11234" max="11241" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11242" max="11242" width="13.5703125" customWidth="1"/>
-    <col min="11243" max="11243" width="13.42578125" customWidth="1"/>
-    <col min="11244" max="11245" width="13.5703125" customWidth="1"/>
-    <col min="11246" max="11246" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11247" max="11247" width="8.7109375" customWidth="1"/>
-    <col min="11248" max="11248" width="15.28515625" customWidth="1"/>
-    <col min="11249" max="11250" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11253" max="11253" width="18.140625" customWidth="1"/>
-    <col min="11489" max="11489" width="28.28515625" customWidth="1"/>
-    <col min="11490" max="11497" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11498" max="11498" width="13.5703125" customWidth="1"/>
-    <col min="11499" max="11499" width="13.42578125" customWidth="1"/>
-    <col min="11500" max="11501" width="13.5703125" customWidth="1"/>
-    <col min="11502" max="11502" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11503" max="11503" width="8.7109375" customWidth="1"/>
-    <col min="11504" max="11504" width="15.28515625" customWidth="1"/>
-    <col min="11505" max="11506" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11509" max="11509" width="18.140625" customWidth="1"/>
-    <col min="11745" max="11745" width="28.28515625" customWidth="1"/>
-    <col min="11746" max="11753" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11754" max="11754" width="13.5703125" customWidth="1"/>
-    <col min="11755" max="11755" width="13.42578125" customWidth="1"/>
-    <col min="11756" max="11757" width="13.5703125" customWidth="1"/>
-    <col min="11758" max="11758" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11759" max="11759" width="8.7109375" customWidth="1"/>
-    <col min="11760" max="11760" width="15.28515625" customWidth="1"/>
-    <col min="11761" max="11762" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11765" max="11765" width="18.140625" customWidth="1"/>
-    <col min="12001" max="12001" width="28.28515625" customWidth="1"/>
-    <col min="12002" max="12009" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12010" max="12010" width="13.5703125" customWidth="1"/>
-    <col min="12011" max="12011" width="13.42578125" customWidth="1"/>
-    <col min="12012" max="12013" width="13.5703125" customWidth="1"/>
-    <col min="12014" max="12014" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12015" max="12015" width="8.7109375" customWidth="1"/>
-    <col min="12016" max="12016" width="15.28515625" customWidth="1"/>
-    <col min="12017" max="12018" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12021" max="12021" width="18.140625" customWidth="1"/>
-    <col min="12257" max="12257" width="28.28515625" customWidth="1"/>
-    <col min="12258" max="12265" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12266" max="12266" width="13.5703125" customWidth="1"/>
-    <col min="12267" max="12267" width="13.42578125" customWidth="1"/>
-    <col min="12268" max="12269" width="13.5703125" customWidth="1"/>
-    <col min="12270" max="12270" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12271" max="12271" width="8.7109375" customWidth="1"/>
-    <col min="12272" max="12272" width="15.28515625" customWidth="1"/>
-    <col min="12273" max="12274" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12277" max="12277" width="18.140625" customWidth="1"/>
-    <col min="12513" max="12513" width="28.28515625" customWidth="1"/>
-    <col min="12514" max="12521" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12522" max="12522" width="13.5703125" customWidth="1"/>
-    <col min="12523" max="12523" width="13.42578125" customWidth="1"/>
-    <col min="12524" max="12525" width="13.5703125" customWidth="1"/>
-    <col min="12526" max="12526" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12527" max="12527" width="8.7109375" customWidth="1"/>
-    <col min="12528" max="12528" width="15.28515625" customWidth="1"/>
-    <col min="12529" max="12530" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12533" max="12533" width="18.140625" customWidth="1"/>
-    <col min="12769" max="12769" width="28.28515625" customWidth="1"/>
-    <col min="12770" max="12777" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12778" max="12778" width="13.5703125" customWidth="1"/>
-    <col min="12779" max="12779" width="13.42578125" customWidth="1"/>
-    <col min="12780" max="12781" width="13.5703125" customWidth="1"/>
-    <col min="12782" max="12782" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12783" max="12783" width="8.7109375" customWidth="1"/>
-    <col min="12784" max="12784" width="15.28515625" customWidth="1"/>
-    <col min="12785" max="12786" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12789" max="12789" width="18.140625" customWidth="1"/>
-    <col min="13025" max="13025" width="28.28515625" customWidth="1"/>
-    <col min="13026" max="13033" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13034" max="13034" width="13.5703125" customWidth="1"/>
-    <col min="13035" max="13035" width="13.42578125" customWidth="1"/>
-    <col min="13036" max="13037" width="13.5703125" customWidth="1"/>
-    <col min="13038" max="13038" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13039" max="13039" width="8.7109375" customWidth="1"/>
-    <col min="13040" max="13040" width="15.28515625" customWidth="1"/>
-    <col min="13041" max="13042" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13045" max="13045" width="18.140625" customWidth="1"/>
-    <col min="13281" max="13281" width="28.28515625" customWidth="1"/>
-    <col min="13282" max="13289" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13290" max="13290" width="13.5703125" customWidth="1"/>
-    <col min="13291" max="13291" width="13.42578125" customWidth="1"/>
-    <col min="13292" max="13293" width="13.5703125" customWidth="1"/>
-    <col min="13294" max="13294" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13295" max="13295" width="8.7109375" customWidth="1"/>
-    <col min="13296" max="13296" width="15.28515625" customWidth="1"/>
-    <col min="13297" max="13298" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13301" max="13301" width="18.140625" customWidth="1"/>
-    <col min="13537" max="13537" width="28.28515625" customWidth="1"/>
-    <col min="13538" max="13545" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13546" max="13546" width="13.5703125" customWidth="1"/>
-    <col min="13547" max="13547" width="13.42578125" customWidth="1"/>
-    <col min="13548" max="13549" width="13.5703125" customWidth="1"/>
-    <col min="13550" max="13550" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13551" max="13551" width="8.7109375" customWidth="1"/>
-    <col min="13552" max="13552" width="15.28515625" customWidth="1"/>
-    <col min="13553" max="13554" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13557" max="13557" width="18.140625" customWidth="1"/>
-    <col min="13793" max="13793" width="28.28515625" customWidth="1"/>
-    <col min="13794" max="13801" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13802" max="13802" width="13.5703125" customWidth="1"/>
-    <col min="13803" max="13803" width="13.42578125" customWidth="1"/>
-    <col min="13804" max="13805" width="13.5703125" customWidth="1"/>
-    <col min="13806" max="13806" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13807" max="13807" width="8.7109375" customWidth="1"/>
-    <col min="13808" max="13808" width="15.28515625" customWidth="1"/>
-    <col min="13809" max="13810" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13813" max="13813" width="18.140625" customWidth="1"/>
-    <col min="14049" max="14049" width="28.28515625" customWidth="1"/>
-    <col min="14050" max="14057" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14058" max="14058" width="13.5703125" customWidth="1"/>
-    <col min="14059" max="14059" width="13.42578125" customWidth="1"/>
-    <col min="14060" max="14061" width="13.5703125" customWidth="1"/>
-    <col min="14062" max="14062" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14063" max="14063" width="8.7109375" customWidth="1"/>
-    <col min="14064" max="14064" width="15.28515625" customWidth="1"/>
-    <col min="14065" max="14066" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14069" max="14069" width="18.140625" customWidth="1"/>
-    <col min="14305" max="14305" width="28.28515625" customWidth="1"/>
-    <col min="14306" max="14313" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14314" max="14314" width="13.5703125" customWidth="1"/>
-    <col min="14315" max="14315" width="13.42578125" customWidth="1"/>
-    <col min="14316" max="14317" width="13.5703125" customWidth="1"/>
-    <col min="14318" max="14318" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14319" max="14319" width="8.7109375" customWidth="1"/>
-    <col min="14320" max="14320" width="15.28515625" customWidth="1"/>
-    <col min="14321" max="14322" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14325" max="14325" width="18.140625" customWidth="1"/>
-    <col min="14561" max="14561" width="28.28515625" customWidth="1"/>
-    <col min="14562" max="14569" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14570" max="14570" width="13.5703125" customWidth="1"/>
-    <col min="14571" max="14571" width="13.42578125" customWidth="1"/>
-    <col min="14572" max="14573" width="13.5703125" customWidth="1"/>
-    <col min="14574" max="14574" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14575" max="14575" width="8.7109375" customWidth="1"/>
-    <col min="14576" max="14576" width="15.28515625" customWidth="1"/>
-    <col min="14577" max="14578" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14581" max="14581" width="18.140625" customWidth="1"/>
-    <col min="14817" max="14817" width="28.28515625" customWidth="1"/>
-    <col min="14818" max="14825" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14826" max="14826" width="13.5703125" customWidth="1"/>
-    <col min="14827" max="14827" width="13.42578125" customWidth="1"/>
-    <col min="14828" max="14829" width="13.5703125" customWidth="1"/>
-    <col min="14830" max="14830" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14831" max="14831" width="8.7109375" customWidth="1"/>
-    <col min="14832" max="14832" width="15.28515625" customWidth="1"/>
-    <col min="14833" max="14834" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14837" max="14837" width="18.140625" customWidth="1"/>
-    <col min="15073" max="15073" width="28.28515625" customWidth="1"/>
-    <col min="15074" max="15081" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15082" max="15082" width="13.5703125" customWidth="1"/>
-    <col min="15083" max="15083" width="13.42578125" customWidth="1"/>
-    <col min="15084" max="15085" width="13.5703125" customWidth="1"/>
-    <col min="15086" max="15086" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15087" max="15087" width="8.7109375" customWidth="1"/>
-    <col min="15088" max="15088" width="15.28515625" customWidth="1"/>
-    <col min="15089" max="15090" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15093" max="15093" width="18.140625" customWidth="1"/>
-    <col min="15329" max="15329" width="28.28515625" customWidth="1"/>
-    <col min="15330" max="15337" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15338" max="15338" width="13.5703125" customWidth="1"/>
-    <col min="15339" max="15339" width="13.42578125" customWidth="1"/>
-    <col min="15340" max="15341" width="13.5703125" customWidth="1"/>
-    <col min="15342" max="15342" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15343" max="15343" width="8.7109375" customWidth="1"/>
-    <col min="15344" max="15344" width="15.28515625" customWidth="1"/>
-    <col min="15345" max="15346" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15349" max="15349" width="18.140625" customWidth="1"/>
-    <col min="15585" max="15585" width="28.28515625" customWidth="1"/>
-    <col min="15586" max="15593" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15594" max="15594" width="13.5703125" customWidth="1"/>
-    <col min="15595" max="15595" width="13.42578125" customWidth="1"/>
-    <col min="15596" max="15597" width="13.5703125" customWidth="1"/>
-    <col min="15598" max="15598" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15599" max="15599" width="8.7109375" customWidth="1"/>
-    <col min="15600" max="15600" width="15.28515625" customWidth="1"/>
-    <col min="15601" max="15602" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15605" max="15605" width="18.140625" customWidth="1"/>
-    <col min="15841" max="15841" width="28.28515625" customWidth="1"/>
-    <col min="15842" max="15849" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15850" max="15850" width="13.5703125" customWidth="1"/>
-    <col min="15851" max="15851" width="13.42578125" customWidth="1"/>
-    <col min="15852" max="15853" width="13.5703125" customWidth="1"/>
-    <col min="15854" max="15854" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="15855" max="15855" width="8.7109375" customWidth="1"/>
-    <col min="15856" max="15856" width="15.28515625" customWidth="1"/>
-    <col min="15857" max="15858" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15861" max="15861" width="18.140625" customWidth="1"/>
-    <col min="16097" max="16097" width="28.28515625" customWidth="1"/>
-    <col min="16098" max="16105" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16106" max="16106" width="13.5703125" customWidth="1"/>
-    <col min="16107" max="16107" width="13.42578125" customWidth="1"/>
-    <col min="16108" max="16109" width="13.5703125" customWidth="1"/>
-    <col min="16110" max="16110" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="16111" max="16111" width="8.7109375" customWidth="1"/>
-    <col min="16112" max="16112" width="15.28515625" customWidth="1"/>
-    <col min="16113" max="16114" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16117" max="16117" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="32" customWidth="1"/>
+    <col min="2" max="9" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="13.5546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="225" max="225" width="28.33203125" customWidth="1"/>
+    <col min="226" max="233" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="234" max="234" width="13.5546875" customWidth="1"/>
+    <col min="235" max="235" width="13.44140625" customWidth="1"/>
+    <col min="236" max="237" width="13.5546875" customWidth="1"/>
+    <col min="238" max="238" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="239" max="239" width="8.6640625" customWidth="1"/>
+    <col min="240" max="240" width="15.33203125" customWidth="1"/>
+    <col min="241" max="242" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="245" max="245" width="18.109375" customWidth="1"/>
+    <col min="481" max="481" width="28.33203125" customWidth="1"/>
+    <col min="482" max="489" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="490" max="490" width="13.5546875" customWidth="1"/>
+    <col min="491" max="491" width="13.44140625" customWidth="1"/>
+    <col min="492" max="493" width="13.5546875" customWidth="1"/>
+    <col min="494" max="494" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="495" max="495" width="8.6640625" customWidth="1"/>
+    <col min="496" max="496" width="15.33203125" customWidth="1"/>
+    <col min="497" max="498" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="501" max="501" width="18.109375" customWidth="1"/>
+    <col min="737" max="737" width="28.33203125" customWidth="1"/>
+    <col min="738" max="745" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="746" max="746" width="13.5546875" customWidth="1"/>
+    <col min="747" max="747" width="13.44140625" customWidth="1"/>
+    <col min="748" max="749" width="13.5546875" customWidth="1"/>
+    <col min="750" max="750" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="751" max="751" width="8.6640625" customWidth="1"/>
+    <col min="752" max="752" width="15.33203125" customWidth="1"/>
+    <col min="753" max="754" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="757" max="757" width="18.109375" customWidth="1"/>
+    <col min="993" max="993" width="28.33203125" customWidth="1"/>
+    <col min="994" max="1001" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1002" max="1002" width="13.5546875" customWidth="1"/>
+    <col min="1003" max="1003" width="13.44140625" customWidth="1"/>
+    <col min="1004" max="1005" width="13.5546875" customWidth="1"/>
+    <col min="1006" max="1006" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1007" max="1007" width="8.6640625" customWidth="1"/>
+    <col min="1008" max="1008" width="15.33203125" customWidth="1"/>
+    <col min="1009" max="1010" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1013" max="1013" width="18.109375" customWidth="1"/>
+    <col min="1249" max="1249" width="28.33203125" customWidth="1"/>
+    <col min="1250" max="1257" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1258" max="1258" width="13.5546875" customWidth="1"/>
+    <col min="1259" max="1259" width="13.44140625" customWidth="1"/>
+    <col min="1260" max="1261" width="13.5546875" customWidth="1"/>
+    <col min="1262" max="1262" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1263" max="1263" width="8.6640625" customWidth="1"/>
+    <col min="1264" max="1264" width="15.33203125" customWidth="1"/>
+    <col min="1265" max="1266" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1269" max="1269" width="18.109375" customWidth="1"/>
+    <col min="1505" max="1505" width="28.33203125" customWidth="1"/>
+    <col min="1506" max="1513" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1514" max="1514" width="13.5546875" customWidth="1"/>
+    <col min="1515" max="1515" width="13.44140625" customWidth="1"/>
+    <col min="1516" max="1517" width="13.5546875" customWidth="1"/>
+    <col min="1518" max="1518" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1519" max="1519" width="8.6640625" customWidth="1"/>
+    <col min="1520" max="1520" width="15.33203125" customWidth="1"/>
+    <col min="1521" max="1522" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1525" max="1525" width="18.109375" customWidth="1"/>
+    <col min="1761" max="1761" width="28.33203125" customWidth="1"/>
+    <col min="1762" max="1769" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1770" max="1770" width="13.5546875" customWidth="1"/>
+    <col min="1771" max="1771" width="13.44140625" customWidth="1"/>
+    <col min="1772" max="1773" width="13.5546875" customWidth="1"/>
+    <col min="1774" max="1774" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1775" max="1775" width="8.6640625" customWidth="1"/>
+    <col min="1776" max="1776" width="15.33203125" customWidth="1"/>
+    <col min="1777" max="1778" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1781" max="1781" width="18.109375" customWidth="1"/>
+    <col min="2017" max="2017" width="28.33203125" customWidth="1"/>
+    <col min="2018" max="2025" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2026" max="2026" width="13.5546875" customWidth="1"/>
+    <col min="2027" max="2027" width="13.44140625" customWidth="1"/>
+    <col min="2028" max="2029" width="13.5546875" customWidth="1"/>
+    <col min="2030" max="2030" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2031" max="2031" width="8.6640625" customWidth="1"/>
+    <col min="2032" max="2032" width="15.33203125" customWidth="1"/>
+    <col min="2033" max="2034" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2037" max="2037" width="18.109375" customWidth="1"/>
+    <col min="2273" max="2273" width="28.33203125" customWidth="1"/>
+    <col min="2274" max="2281" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2282" max="2282" width="13.5546875" customWidth="1"/>
+    <col min="2283" max="2283" width="13.44140625" customWidth="1"/>
+    <col min="2284" max="2285" width="13.5546875" customWidth="1"/>
+    <col min="2286" max="2286" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2287" max="2287" width="8.6640625" customWidth="1"/>
+    <col min="2288" max="2288" width="15.33203125" customWidth="1"/>
+    <col min="2289" max="2290" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2293" max="2293" width="18.109375" customWidth="1"/>
+    <col min="2529" max="2529" width="28.33203125" customWidth="1"/>
+    <col min="2530" max="2537" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2538" max="2538" width="13.5546875" customWidth="1"/>
+    <col min="2539" max="2539" width="13.44140625" customWidth="1"/>
+    <col min="2540" max="2541" width="13.5546875" customWidth="1"/>
+    <col min="2542" max="2542" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2543" max="2543" width="8.6640625" customWidth="1"/>
+    <col min="2544" max="2544" width="15.33203125" customWidth="1"/>
+    <col min="2545" max="2546" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2549" max="2549" width="18.109375" customWidth="1"/>
+    <col min="2785" max="2785" width="28.33203125" customWidth="1"/>
+    <col min="2786" max="2793" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2794" max="2794" width="13.5546875" customWidth="1"/>
+    <col min="2795" max="2795" width="13.44140625" customWidth="1"/>
+    <col min="2796" max="2797" width="13.5546875" customWidth="1"/>
+    <col min="2798" max="2798" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2799" max="2799" width="8.6640625" customWidth="1"/>
+    <col min="2800" max="2800" width="15.33203125" customWidth="1"/>
+    <col min="2801" max="2802" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2805" max="2805" width="18.109375" customWidth="1"/>
+    <col min="3041" max="3041" width="28.33203125" customWidth="1"/>
+    <col min="3042" max="3049" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3050" max="3050" width="13.5546875" customWidth="1"/>
+    <col min="3051" max="3051" width="13.44140625" customWidth="1"/>
+    <col min="3052" max="3053" width="13.5546875" customWidth="1"/>
+    <col min="3054" max="3054" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3055" max="3055" width="8.6640625" customWidth="1"/>
+    <col min="3056" max="3056" width="15.33203125" customWidth="1"/>
+    <col min="3057" max="3058" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3061" max="3061" width="18.109375" customWidth="1"/>
+    <col min="3297" max="3297" width="28.33203125" customWidth="1"/>
+    <col min="3298" max="3305" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3306" max="3306" width="13.5546875" customWidth="1"/>
+    <col min="3307" max="3307" width="13.44140625" customWidth="1"/>
+    <col min="3308" max="3309" width="13.5546875" customWidth="1"/>
+    <col min="3310" max="3310" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3311" max="3311" width="8.6640625" customWidth="1"/>
+    <col min="3312" max="3312" width="15.33203125" customWidth="1"/>
+    <col min="3313" max="3314" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3317" max="3317" width="18.109375" customWidth="1"/>
+    <col min="3553" max="3553" width="28.33203125" customWidth="1"/>
+    <col min="3554" max="3561" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3562" max="3562" width="13.5546875" customWidth="1"/>
+    <col min="3563" max="3563" width="13.44140625" customWidth="1"/>
+    <col min="3564" max="3565" width="13.5546875" customWidth="1"/>
+    <col min="3566" max="3566" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3567" max="3567" width="8.6640625" customWidth="1"/>
+    <col min="3568" max="3568" width="15.33203125" customWidth="1"/>
+    <col min="3569" max="3570" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3573" max="3573" width="18.109375" customWidth="1"/>
+    <col min="3809" max="3809" width="28.33203125" customWidth="1"/>
+    <col min="3810" max="3817" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3818" max="3818" width="13.5546875" customWidth="1"/>
+    <col min="3819" max="3819" width="13.44140625" customWidth="1"/>
+    <col min="3820" max="3821" width="13.5546875" customWidth="1"/>
+    <col min="3822" max="3822" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3823" max="3823" width="8.6640625" customWidth="1"/>
+    <col min="3824" max="3824" width="15.33203125" customWidth="1"/>
+    <col min="3825" max="3826" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3829" max="3829" width="18.109375" customWidth="1"/>
+    <col min="4065" max="4065" width="28.33203125" customWidth="1"/>
+    <col min="4066" max="4073" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4074" max="4074" width="13.5546875" customWidth="1"/>
+    <col min="4075" max="4075" width="13.44140625" customWidth="1"/>
+    <col min="4076" max="4077" width="13.5546875" customWidth="1"/>
+    <col min="4078" max="4078" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4079" max="4079" width="8.6640625" customWidth="1"/>
+    <col min="4080" max="4080" width="15.33203125" customWidth="1"/>
+    <col min="4081" max="4082" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4085" max="4085" width="18.109375" customWidth="1"/>
+    <col min="4321" max="4321" width="28.33203125" customWidth="1"/>
+    <col min="4322" max="4329" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4330" max="4330" width="13.5546875" customWidth="1"/>
+    <col min="4331" max="4331" width="13.44140625" customWidth="1"/>
+    <col min="4332" max="4333" width="13.5546875" customWidth="1"/>
+    <col min="4334" max="4334" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4335" max="4335" width="8.6640625" customWidth="1"/>
+    <col min="4336" max="4336" width="15.33203125" customWidth="1"/>
+    <col min="4337" max="4338" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4341" max="4341" width="18.109375" customWidth="1"/>
+    <col min="4577" max="4577" width="28.33203125" customWidth="1"/>
+    <col min="4578" max="4585" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4586" max="4586" width="13.5546875" customWidth="1"/>
+    <col min="4587" max="4587" width="13.44140625" customWidth="1"/>
+    <col min="4588" max="4589" width="13.5546875" customWidth="1"/>
+    <col min="4590" max="4590" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4591" max="4591" width="8.6640625" customWidth="1"/>
+    <col min="4592" max="4592" width="15.33203125" customWidth="1"/>
+    <col min="4593" max="4594" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4597" max="4597" width="18.109375" customWidth="1"/>
+    <col min="4833" max="4833" width="28.33203125" customWidth="1"/>
+    <col min="4834" max="4841" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4842" max="4842" width="13.5546875" customWidth="1"/>
+    <col min="4843" max="4843" width="13.44140625" customWidth="1"/>
+    <col min="4844" max="4845" width="13.5546875" customWidth="1"/>
+    <col min="4846" max="4846" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="4847" max="4847" width="8.6640625" customWidth="1"/>
+    <col min="4848" max="4848" width="15.33203125" customWidth="1"/>
+    <col min="4849" max="4850" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4853" max="4853" width="18.109375" customWidth="1"/>
+    <col min="5089" max="5089" width="28.33203125" customWidth="1"/>
+    <col min="5090" max="5097" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5098" max="5098" width="13.5546875" customWidth="1"/>
+    <col min="5099" max="5099" width="13.44140625" customWidth="1"/>
+    <col min="5100" max="5101" width="13.5546875" customWidth="1"/>
+    <col min="5102" max="5102" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5103" max="5103" width="8.6640625" customWidth="1"/>
+    <col min="5104" max="5104" width="15.33203125" customWidth="1"/>
+    <col min="5105" max="5106" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5109" max="5109" width="18.109375" customWidth="1"/>
+    <col min="5345" max="5345" width="28.33203125" customWidth="1"/>
+    <col min="5346" max="5353" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5354" max="5354" width="13.5546875" customWidth="1"/>
+    <col min="5355" max="5355" width="13.44140625" customWidth="1"/>
+    <col min="5356" max="5357" width="13.5546875" customWidth="1"/>
+    <col min="5358" max="5358" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5359" max="5359" width="8.6640625" customWidth="1"/>
+    <col min="5360" max="5360" width="15.33203125" customWidth="1"/>
+    <col min="5361" max="5362" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5365" max="5365" width="18.109375" customWidth="1"/>
+    <col min="5601" max="5601" width="28.33203125" customWidth="1"/>
+    <col min="5602" max="5609" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5610" max="5610" width="13.5546875" customWidth="1"/>
+    <col min="5611" max="5611" width="13.44140625" customWidth="1"/>
+    <col min="5612" max="5613" width="13.5546875" customWidth="1"/>
+    <col min="5614" max="5614" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5615" max="5615" width="8.6640625" customWidth="1"/>
+    <col min="5616" max="5616" width="15.33203125" customWidth="1"/>
+    <col min="5617" max="5618" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5621" max="5621" width="18.109375" customWidth="1"/>
+    <col min="5857" max="5857" width="28.33203125" customWidth="1"/>
+    <col min="5858" max="5865" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5866" max="5866" width="13.5546875" customWidth="1"/>
+    <col min="5867" max="5867" width="13.44140625" customWidth="1"/>
+    <col min="5868" max="5869" width="13.5546875" customWidth="1"/>
+    <col min="5870" max="5870" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5871" max="5871" width="8.6640625" customWidth="1"/>
+    <col min="5872" max="5872" width="15.33203125" customWidth="1"/>
+    <col min="5873" max="5874" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5877" max="5877" width="18.109375" customWidth="1"/>
+    <col min="6113" max="6113" width="28.33203125" customWidth="1"/>
+    <col min="6114" max="6121" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6122" max="6122" width="13.5546875" customWidth="1"/>
+    <col min="6123" max="6123" width="13.44140625" customWidth="1"/>
+    <col min="6124" max="6125" width="13.5546875" customWidth="1"/>
+    <col min="6126" max="6126" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6127" max="6127" width="8.6640625" customWidth="1"/>
+    <col min="6128" max="6128" width="15.33203125" customWidth="1"/>
+    <col min="6129" max="6130" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6133" max="6133" width="18.109375" customWidth="1"/>
+    <col min="6369" max="6369" width="28.33203125" customWidth="1"/>
+    <col min="6370" max="6377" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6378" max="6378" width="13.5546875" customWidth="1"/>
+    <col min="6379" max="6379" width="13.44140625" customWidth="1"/>
+    <col min="6380" max="6381" width="13.5546875" customWidth="1"/>
+    <col min="6382" max="6382" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6383" max="6383" width="8.6640625" customWidth="1"/>
+    <col min="6384" max="6384" width="15.33203125" customWidth="1"/>
+    <col min="6385" max="6386" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6389" max="6389" width="18.109375" customWidth="1"/>
+    <col min="6625" max="6625" width="28.33203125" customWidth="1"/>
+    <col min="6626" max="6633" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6634" max="6634" width="13.5546875" customWidth="1"/>
+    <col min="6635" max="6635" width="13.44140625" customWidth="1"/>
+    <col min="6636" max="6637" width="13.5546875" customWidth="1"/>
+    <col min="6638" max="6638" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6639" max="6639" width="8.6640625" customWidth="1"/>
+    <col min="6640" max="6640" width="15.33203125" customWidth="1"/>
+    <col min="6641" max="6642" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6645" max="6645" width="18.109375" customWidth="1"/>
+    <col min="6881" max="6881" width="28.33203125" customWidth="1"/>
+    <col min="6882" max="6889" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6890" max="6890" width="13.5546875" customWidth="1"/>
+    <col min="6891" max="6891" width="13.44140625" customWidth="1"/>
+    <col min="6892" max="6893" width="13.5546875" customWidth="1"/>
+    <col min="6894" max="6894" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6895" max="6895" width="8.6640625" customWidth="1"/>
+    <col min="6896" max="6896" width="15.33203125" customWidth="1"/>
+    <col min="6897" max="6898" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6901" max="6901" width="18.109375" customWidth="1"/>
+    <col min="7137" max="7137" width="28.33203125" customWidth="1"/>
+    <col min="7138" max="7145" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7146" max="7146" width="13.5546875" customWidth="1"/>
+    <col min="7147" max="7147" width="13.44140625" customWidth="1"/>
+    <col min="7148" max="7149" width="13.5546875" customWidth="1"/>
+    <col min="7150" max="7150" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7151" max="7151" width="8.6640625" customWidth="1"/>
+    <col min="7152" max="7152" width="15.33203125" customWidth="1"/>
+    <col min="7153" max="7154" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7157" max="7157" width="18.109375" customWidth="1"/>
+    <col min="7393" max="7393" width="28.33203125" customWidth="1"/>
+    <col min="7394" max="7401" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7402" max="7402" width="13.5546875" customWidth="1"/>
+    <col min="7403" max="7403" width="13.44140625" customWidth="1"/>
+    <col min="7404" max="7405" width="13.5546875" customWidth="1"/>
+    <col min="7406" max="7406" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7407" max="7407" width="8.6640625" customWidth="1"/>
+    <col min="7408" max="7408" width="15.33203125" customWidth="1"/>
+    <col min="7409" max="7410" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7413" max="7413" width="18.109375" customWidth="1"/>
+    <col min="7649" max="7649" width="28.33203125" customWidth="1"/>
+    <col min="7650" max="7657" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7658" max="7658" width="13.5546875" customWidth="1"/>
+    <col min="7659" max="7659" width="13.44140625" customWidth="1"/>
+    <col min="7660" max="7661" width="13.5546875" customWidth="1"/>
+    <col min="7662" max="7662" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7663" max="7663" width="8.6640625" customWidth="1"/>
+    <col min="7664" max="7664" width="15.33203125" customWidth="1"/>
+    <col min="7665" max="7666" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7669" max="7669" width="18.109375" customWidth="1"/>
+    <col min="7905" max="7905" width="28.33203125" customWidth="1"/>
+    <col min="7906" max="7913" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7914" max="7914" width="13.5546875" customWidth="1"/>
+    <col min="7915" max="7915" width="13.44140625" customWidth="1"/>
+    <col min="7916" max="7917" width="13.5546875" customWidth="1"/>
+    <col min="7918" max="7918" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7919" max="7919" width="8.6640625" customWidth="1"/>
+    <col min="7920" max="7920" width="15.33203125" customWidth="1"/>
+    <col min="7921" max="7922" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7925" max="7925" width="18.109375" customWidth="1"/>
+    <col min="8161" max="8161" width="28.33203125" customWidth="1"/>
+    <col min="8162" max="8169" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8170" max="8170" width="13.5546875" customWidth="1"/>
+    <col min="8171" max="8171" width="13.44140625" customWidth="1"/>
+    <col min="8172" max="8173" width="13.5546875" customWidth="1"/>
+    <col min="8174" max="8174" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8175" max="8175" width="8.6640625" customWidth="1"/>
+    <col min="8176" max="8176" width="15.33203125" customWidth="1"/>
+    <col min="8177" max="8178" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8181" max="8181" width="18.109375" customWidth="1"/>
+    <col min="8417" max="8417" width="28.33203125" customWidth="1"/>
+    <col min="8418" max="8425" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8426" max="8426" width="13.5546875" customWidth="1"/>
+    <col min="8427" max="8427" width="13.44140625" customWidth="1"/>
+    <col min="8428" max="8429" width="13.5546875" customWidth="1"/>
+    <col min="8430" max="8430" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8431" max="8431" width="8.6640625" customWidth="1"/>
+    <col min="8432" max="8432" width="15.33203125" customWidth="1"/>
+    <col min="8433" max="8434" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8437" max="8437" width="18.109375" customWidth="1"/>
+    <col min="8673" max="8673" width="28.33203125" customWidth="1"/>
+    <col min="8674" max="8681" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8682" max="8682" width="13.5546875" customWidth="1"/>
+    <col min="8683" max="8683" width="13.44140625" customWidth="1"/>
+    <col min="8684" max="8685" width="13.5546875" customWidth="1"/>
+    <col min="8686" max="8686" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8687" max="8687" width="8.6640625" customWidth="1"/>
+    <col min="8688" max="8688" width="15.33203125" customWidth="1"/>
+    <col min="8689" max="8690" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8693" max="8693" width="18.109375" customWidth="1"/>
+    <col min="8929" max="8929" width="28.33203125" customWidth="1"/>
+    <col min="8930" max="8937" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8938" max="8938" width="13.5546875" customWidth="1"/>
+    <col min="8939" max="8939" width="13.44140625" customWidth="1"/>
+    <col min="8940" max="8941" width="13.5546875" customWidth="1"/>
+    <col min="8942" max="8942" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="8943" max="8943" width="8.6640625" customWidth="1"/>
+    <col min="8944" max="8944" width="15.33203125" customWidth="1"/>
+    <col min="8945" max="8946" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8949" max="8949" width="18.109375" customWidth="1"/>
+    <col min="9185" max="9185" width="28.33203125" customWidth="1"/>
+    <col min="9186" max="9193" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9194" max="9194" width="13.5546875" customWidth="1"/>
+    <col min="9195" max="9195" width="13.44140625" customWidth="1"/>
+    <col min="9196" max="9197" width="13.5546875" customWidth="1"/>
+    <col min="9198" max="9198" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9199" max="9199" width="8.6640625" customWidth="1"/>
+    <col min="9200" max="9200" width="15.33203125" customWidth="1"/>
+    <col min="9201" max="9202" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9205" max="9205" width="18.109375" customWidth="1"/>
+    <col min="9441" max="9441" width="28.33203125" customWidth="1"/>
+    <col min="9442" max="9449" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9450" max="9450" width="13.5546875" customWidth="1"/>
+    <col min="9451" max="9451" width="13.44140625" customWidth="1"/>
+    <col min="9452" max="9453" width="13.5546875" customWidth="1"/>
+    <col min="9454" max="9454" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9455" max="9455" width="8.6640625" customWidth="1"/>
+    <col min="9456" max="9456" width="15.33203125" customWidth="1"/>
+    <col min="9457" max="9458" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9461" max="9461" width="18.109375" customWidth="1"/>
+    <col min="9697" max="9697" width="28.33203125" customWidth="1"/>
+    <col min="9698" max="9705" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9706" max="9706" width="13.5546875" customWidth="1"/>
+    <col min="9707" max="9707" width="13.44140625" customWidth="1"/>
+    <col min="9708" max="9709" width="13.5546875" customWidth="1"/>
+    <col min="9710" max="9710" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9711" max="9711" width="8.6640625" customWidth="1"/>
+    <col min="9712" max="9712" width="15.33203125" customWidth="1"/>
+    <col min="9713" max="9714" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9717" max="9717" width="18.109375" customWidth="1"/>
+    <col min="9953" max="9953" width="28.33203125" customWidth="1"/>
+    <col min="9954" max="9961" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9962" max="9962" width="13.5546875" customWidth="1"/>
+    <col min="9963" max="9963" width="13.44140625" customWidth="1"/>
+    <col min="9964" max="9965" width="13.5546875" customWidth="1"/>
+    <col min="9966" max="9966" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9967" max="9967" width="8.6640625" customWidth="1"/>
+    <col min="9968" max="9968" width="15.33203125" customWidth="1"/>
+    <col min="9969" max="9970" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9973" max="9973" width="18.109375" customWidth="1"/>
+    <col min="10209" max="10209" width="28.33203125" customWidth="1"/>
+    <col min="10210" max="10217" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10218" max="10218" width="13.5546875" customWidth="1"/>
+    <col min="10219" max="10219" width="13.44140625" customWidth="1"/>
+    <col min="10220" max="10221" width="13.5546875" customWidth="1"/>
+    <col min="10222" max="10222" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10223" max="10223" width="8.6640625" customWidth="1"/>
+    <col min="10224" max="10224" width="15.33203125" customWidth="1"/>
+    <col min="10225" max="10226" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10229" max="10229" width="18.109375" customWidth="1"/>
+    <col min="10465" max="10465" width="28.33203125" customWidth="1"/>
+    <col min="10466" max="10473" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10474" max="10474" width="13.5546875" customWidth="1"/>
+    <col min="10475" max="10475" width="13.44140625" customWidth="1"/>
+    <col min="10476" max="10477" width="13.5546875" customWidth="1"/>
+    <col min="10478" max="10478" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10479" max="10479" width="8.6640625" customWidth="1"/>
+    <col min="10480" max="10480" width="15.33203125" customWidth="1"/>
+    <col min="10481" max="10482" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10485" max="10485" width="18.109375" customWidth="1"/>
+    <col min="10721" max="10721" width="28.33203125" customWidth="1"/>
+    <col min="10722" max="10729" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10730" max="10730" width="13.5546875" customWidth="1"/>
+    <col min="10731" max="10731" width="13.44140625" customWidth="1"/>
+    <col min="10732" max="10733" width="13.5546875" customWidth="1"/>
+    <col min="10734" max="10734" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10735" max="10735" width="8.6640625" customWidth="1"/>
+    <col min="10736" max="10736" width="15.33203125" customWidth="1"/>
+    <col min="10737" max="10738" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10741" max="10741" width="18.109375" customWidth="1"/>
+    <col min="10977" max="10977" width="28.33203125" customWidth="1"/>
+    <col min="10978" max="10985" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10986" max="10986" width="13.5546875" customWidth="1"/>
+    <col min="10987" max="10987" width="13.44140625" customWidth="1"/>
+    <col min="10988" max="10989" width="13.5546875" customWidth="1"/>
+    <col min="10990" max="10990" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10991" max="10991" width="8.6640625" customWidth="1"/>
+    <col min="10992" max="10992" width="15.33203125" customWidth="1"/>
+    <col min="10993" max="10994" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10997" max="10997" width="18.109375" customWidth="1"/>
+    <col min="11233" max="11233" width="28.33203125" customWidth="1"/>
+    <col min="11234" max="11241" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11242" max="11242" width="13.5546875" customWidth="1"/>
+    <col min="11243" max="11243" width="13.44140625" customWidth="1"/>
+    <col min="11244" max="11245" width="13.5546875" customWidth="1"/>
+    <col min="11246" max="11246" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="11247" max="11247" width="8.6640625" customWidth="1"/>
+    <col min="11248" max="11248" width="15.33203125" customWidth="1"/>
+    <col min="11249" max="11250" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11253" max="11253" width="18.109375" customWidth="1"/>
+    <col min="11489" max="11489" width="28.33203125" customWidth="1"/>
+    <col min="11490" max="11497" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11498" max="11498" width="13.5546875" customWidth="1"/>
+    <col min="11499" max="11499" width="13.44140625" customWidth="1"/>
+    <col min="11500" max="11501" width="13.5546875" customWidth="1"/>
+    <col min="11502" max="11502" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="11503" max="11503" width="8.6640625" customWidth="1"/>
+    <col min="11504" max="11504" width="15.33203125" customWidth="1"/>
+    <col min="11505" max="11506" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11509" max="11509" width="18.109375" customWidth="1"/>
+    <col min="11745" max="11745" width="28.33203125" customWidth="1"/>
+    <col min="11746" max="11753" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11754" max="11754" width="13.5546875" customWidth="1"/>
+    <col min="11755" max="11755" width="13.44140625" customWidth="1"/>
+    <col min="11756" max="11757" width="13.5546875" customWidth="1"/>
+    <col min="11758" max="11758" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="11759" max="11759" width="8.6640625" customWidth="1"/>
+    <col min="11760" max="11760" width="15.33203125" customWidth="1"/>
+    <col min="11761" max="11762" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11765" max="11765" width="18.109375" customWidth="1"/>
+    <col min="12001" max="12001" width="28.33203125" customWidth="1"/>
+    <col min="12002" max="12009" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12010" max="12010" width="13.5546875" customWidth="1"/>
+    <col min="12011" max="12011" width="13.44140625" customWidth="1"/>
+    <col min="12012" max="12013" width="13.5546875" customWidth="1"/>
+    <col min="12014" max="12014" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="12015" max="12015" width="8.6640625" customWidth="1"/>
+    <col min="12016" max="12016" width="15.33203125" customWidth="1"/>
+    <col min="12017" max="12018" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12021" max="12021" width="18.109375" customWidth="1"/>
+    <col min="12257" max="12257" width="28.33203125" customWidth="1"/>
+    <col min="12258" max="12265" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12266" max="12266" width="13.5546875" customWidth="1"/>
+    <col min="12267" max="12267" width="13.44140625" customWidth="1"/>
+    <col min="12268" max="12269" width="13.5546875" customWidth="1"/>
+    <col min="12270" max="12270" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="12271" max="12271" width="8.6640625" customWidth="1"/>
+    <col min="12272" max="12272" width="15.33203125" customWidth="1"/>
+    <col min="12273" max="12274" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12277" max="12277" width="18.109375" customWidth="1"/>
+    <col min="12513" max="12513" width="28.33203125" customWidth="1"/>
+    <col min="12514" max="12521" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12522" max="12522" width="13.5546875" customWidth="1"/>
+    <col min="12523" max="12523" width="13.44140625" customWidth="1"/>
+    <col min="12524" max="12525" width="13.5546875" customWidth="1"/>
+    <col min="12526" max="12526" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="12527" max="12527" width="8.6640625" customWidth="1"/>
+    <col min="12528" max="12528" width="15.33203125" customWidth="1"/>
+    <col min="12529" max="12530" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12533" max="12533" width="18.109375" customWidth="1"/>
+    <col min="12769" max="12769" width="28.33203125" customWidth="1"/>
+    <col min="12770" max="12777" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12778" max="12778" width="13.5546875" customWidth="1"/>
+    <col min="12779" max="12779" width="13.44140625" customWidth="1"/>
+    <col min="12780" max="12781" width="13.5546875" customWidth="1"/>
+    <col min="12782" max="12782" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="12783" max="12783" width="8.6640625" customWidth="1"/>
+    <col min="12784" max="12784" width="15.33203125" customWidth="1"/>
+    <col min="12785" max="12786" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12789" max="12789" width="18.109375" customWidth="1"/>
+    <col min="13025" max="13025" width="28.33203125" customWidth="1"/>
+    <col min="13026" max="13033" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13034" max="13034" width="13.5546875" customWidth="1"/>
+    <col min="13035" max="13035" width="13.44140625" customWidth="1"/>
+    <col min="13036" max="13037" width="13.5546875" customWidth="1"/>
+    <col min="13038" max="13038" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="13039" max="13039" width="8.6640625" customWidth="1"/>
+    <col min="13040" max="13040" width="15.33203125" customWidth="1"/>
+    <col min="13041" max="13042" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13045" max="13045" width="18.109375" customWidth="1"/>
+    <col min="13281" max="13281" width="28.33203125" customWidth="1"/>
+    <col min="13282" max="13289" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13290" max="13290" width="13.5546875" customWidth="1"/>
+    <col min="13291" max="13291" width="13.44140625" customWidth="1"/>
+    <col min="13292" max="13293" width="13.5546875" customWidth="1"/>
+    <col min="13294" max="13294" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="13295" max="13295" width="8.6640625" customWidth="1"/>
+    <col min="13296" max="13296" width="15.33203125" customWidth="1"/>
+    <col min="13297" max="13298" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13301" max="13301" width="18.109375" customWidth="1"/>
+    <col min="13537" max="13537" width="28.33203125" customWidth="1"/>
+    <col min="13538" max="13545" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13546" max="13546" width="13.5546875" customWidth="1"/>
+    <col min="13547" max="13547" width="13.44140625" customWidth="1"/>
+    <col min="13548" max="13549" width="13.5546875" customWidth="1"/>
+    <col min="13550" max="13550" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="13551" max="13551" width="8.6640625" customWidth="1"/>
+    <col min="13552" max="13552" width="15.33203125" customWidth="1"/>
+    <col min="13553" max="13554" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13557" max="13557" width="18.109375" customWidth="1"/>
+    <col min="13793" max="13793" width="28.33203125" customWidth="1"/>
+    <col min="13794" max="13801" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13802" max="13802" width="13.5546875" customWidth="1"/>
+    <col min="13803" max="13803" width="13.44140625" customWidth="1"/>
+    <col min="13804" max="13805" width="13.5546875" customWidth="1"/>
+    <col min="13806" max="13806" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="13807" max="13807" width="8.6640625" customWidth="1"/>
+    <col min="13808" max="13808" width="15.33203125" customWidth="1"/>
+    <col min="13809" max="13810" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13813" max="13813" width="18.109375" customWidth="1"/>
+    <col min="14049" max="14049" width="28.33203125" customWidth="1"/>
+    <col min="14050" max="14057" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14058" max="14058" width="13.5546875" customWidth="1"/>
+    <col min="14059" max="14059" width="13.44140625" customWidth="1"/>
+    <col min="14060" max="14061" width="13.5546875" customWidth="1"/>
+    <col min="14062" max="14062" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="14063" max="14063" width="8.6640625" customWidth="1"/>
+    <col min="14064" max="14064" width="15.33203125" customWidth="1"/>
+    <col min="14065" max="14066" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14069" max="14069" width="18.109375" customWidth="1"/>
+    <col min="14305" max="14305" width="28.33203125" customWidth="1"/>
+    <col min="14306" max="14313" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14314" max="14314" width="13.5546875" customWidth="1"/>
+    <col min="14315" max="14315" width="13.44140625" customWidth="1"/>
+    <col min="14316" max="14317" width="13.5546875" customWidth="1"/>
+    <col min="14318" max="14318" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="14319" max="14319" width="8.6640625" customWidth="1"/>
+    <col min="14320" max="14320" width="15.33203125" customWidth="1"/>
+    <col min="14321" max="14322" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14325" max="14325" width="18.109375" customWidth="1"/>
+    <col min="14561" max="14561" width="28.33203125" customWidth="1"/>
+    <col min="14562" max="14569" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14570" max="14570" width="13.5546875" customWidth="1"/>
+    <col min="14571" max="14571" width="13.44140625" customWidth="1"/>
+    <col min="14572" max="14573" width="13.5546875" customWidth="1"/>
+    <col min="14574" max="14574" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="14575" max="14575" width="8.6640625" customWidth="1"/>
+    <col min="14576" max="14576" width="15.33203125" customWidth="1"/>
+    <col min="14577" max="14578" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14581" max="14581" width="18.109375" customWidth="1"/>
+    <col min="14817" max="14817" width="28.33203125" customWidth="1"/>
+    <col min="14818" max="14825" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14826" max="14826" width="13.5546875" customWidth="1"/>
+    <col min="14827" max="14827" width="13.44140625" customWidth="1"/>
+    <col min="14828" max="14829" width="13.5546875" customWidth="1"/>
+    <col min="14830" max="14830" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="14831" max="14831" width="8.6640625" customWidth="1"/>
+    <col min="14832" max="14832" width="15.33203125" customWidth="1"/>
+    <col min="14833" max="14834" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14837" max="14837" width="18.109375" customWidth="1"/>
+    <col min="15073" max="15073" width="28.33203125" customWidth="1"/>
+    <col min="15074" max="15081" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15082" max="15082" width="13.5546875" customWidth="1"/>
+    <col min="15083" max="15083" width="13.44140625" customWidth="1"/>
+    <col min="15084" max="15085" width="13.5546875" customWidth="1"/>
+    <col min="15086" max="15086" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="15087" max="15087" width="8.6640625" customWidth="1"/>
+    <col min="15088" max="15088" width="15.33203125" customWidth="1"/>
+    <col min="15089" max="15090" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15093" max="15093" width="18.109375" customWidth="1"/>
+    <col min="15329" max="15329" width="28.33203125" customWidth="1"/>
+    <col min="15330" max="15337" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15338" max="15338" width="13.5546875" customWidth="1"/>
+    <col min="15339" max="15339" width="13.44140625" customWidth="1"/>
+    <col min="15340" max="15341" width="13.5546875" customWidth="1"/>
+    <col min="15342" max="15342" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="15343" max="15343" width="8.6640625" customWidth="1"/>
+    <col min="15344" max="15344" width="15.33203125" customWidth="1"/>
+    <col min="15345" max="15346" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15349" max="15349" width="18.109375" customWidth="1"/>
+    <col min="15585" max="15585" width="28.33203125" customWidth="1"/>
+    <col min="15586" max="15593" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15594" max="15594" width="13.5546875" customWidth="1"/>
+    <col min="15595" max="15595" width="13.44140625" customWidth="1"/>
+    <col min="15596" max="15597" width="13.5546875" customWidth="1"/>
+    <col min="15598" max="15598" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="15599" max="15599" width="8.6640625" customWidth="1"/>
+    <col min="15600" max="15600" width="15.33203125" customWidth="1"/>
+    <col min="15601" max="15602" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15605" max="15605" width="18.109375" customWidth="1"/>
+    <col min="15841" max="15841" width="28.33203125" customWidth="1"/>
+    <col min="15842" max="15849" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15850" max="15850" width="13.5546875" customWidth="1"/>
+    <col min="15851" max="15851" width="13.44140625" customWidth="1"/>
+    <col min="15852" max="15853" width="13.5546875" customWidth="1"/>
+    <col min="15854" max="15854" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="15855" max="15855" width="8.6640625" customWidth="1"/>
+    <col min="15856" max="15856" width="15.33203125" customWidth="1"/>
+    <col min="15857" max="15858" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15861" max="15861" width="18.109375" customWidth="1"/>
+    <col min="16097" max="16097" width="28.33203125" customWidth="1"/>
+    <col min="16098" max="16105" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="16106" max="16106" width="13.5546875" customWidth="1"/>
+    <col min="16107" max="16107" width="13.44140625" customWidth="1"/>
+    <col min="16108" max="16109" width="13.5546875" customWidth="1"/>
+    <col min="16110" max="16110" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="16111" max="16111" width="8.6640625" customWidth="1"/>
+    <col min="16112" max="16112" width="15.33203125" customWidth="1"/>
+    <col min="16113" max="16114" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="16117" max="16117" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" s="49"/>
     </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="57" t="s">
         <v>180</v>
       </c>
@@ -1850,7 +2245,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="58" t="s">
         <v>0</v>
       </c>
@@ -1859,28 +2254,28 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="50" t="s">
         <v>165</v>
@@ -1922,7 +2317,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
@@ -1955,7 +2350,7 @@
         <v>936711469.63</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>15</v>
       </c>
@@ -1988,7 +2383,7 @@
         <v>41341498.229999997</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>16</v>
       </c>
@@ -2021,7 +2416,7 @@
         <v>41240162.719999999</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>17</v>
       </c>
@@ -2054,7 +2449,7 @@
         <v>39033594.869999997</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
@@ -2087,7 +2482,7 @@
         <v>19309548.159999996</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>19</v>
       </c>
@@ -2120,7 +2515,7 @@
         <v>71851684.519999996</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>20</v>
       </c>
@@ -2153,7 +2548,7 @@
         <v>34505499.960000001</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>21</v>
       </c>
@@ -2186,7 +2581,7 @@
         <v>607681.28000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>22</v>
       </c>
@@ -2219,7 +2614,7 @@
         <v>24502915.390000004</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>23</v>
       </c>
@@ -2252,7 +2647,7 @@
         <v>19044247.41</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>24</v>
       </c>
@@ -2285,7 +2680,7 @@
         <v>9458652.2000000011</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>25</v>
       </c>
@@ -2318,7 +2713,7 @@
         <v>577490.29</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>26</v>
       </c>
@@ -2351,7 +2746,7 @@
         <v>11483837.530000001</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>27</v>
       </c>
@@ -2384,7 +2779,7 @@
         <v>3455579.95</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>28</v>
       </c>
@@ -2417,7 +2812,7 @@
         <v>689486.24</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
         <v>29</v>
       </c>
@@ -2450,7 +2845,7 @@
         <v>8719501.7699999996</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>177</v>
       </c>
@@ -2507,7 +2902,7 @@
         <v>1262532850.1500003</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -2523,7 +2918,7 @@
       <c r="M27" s="20"/>
       <c r="N27" s="15"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -2534,7 +2929,7 @@
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:14" s="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" s="54" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>178</v>
       </c>
@@ -2564,7 +2959,7 @@
       <c r="M29" s="22"/>
       <c r="N29" s="25"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="56" t="s">
         <v>179</v>
       </c>
@@ -2582,7 +2977,7 @@
       <c r="M30" s="22"/>
       <c r="N30" s="25"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="55"/>
       <c r="C31" s="22"/>
@@ -2598,7 +2993,7 @@
       <c r="M31" s="22"/>
       <c r="N31" s="25"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="55"/>
       <c r="C32" s="22"/>
@@ -2614,22 +3009,22 @@
       <c r="M32" s="22"/>
       <c r="N32" s="25"/>
     </row>
-    <row r="33" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
         <v>2</v>
@@ -2671,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>14</v>
       </c>
@@ -2716,7 +3111,7 @@
         <v>1759909848.7837501</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>15</v>
       </c>
@@ -2761,7 +3156,7 @@
         <v>94813838.201250002</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>16</v>
       </c>
@@ -2806,7 +3201,7 @@
         <v>110801638.15484376</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>17</v>
       </c>
@@ -2851,7 +3246,7 @@
         <v>74880217.879970104</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>18</v>
       </c>
@@ -2896,7 +3291,7 @@
         <v>35676847.499936529</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>19</v>
       </c>
@@ -2941,7 +3336,7 @@
         <v>177939680.34843755</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>20</v>
       </c>
@@ -2986,7 +3381,7 @@
         <v>65957077.674882822</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>21</v>
       </c>
@@ -3031,7 +3426,7 @@
         <v>1594872.62</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>22</v>
       </c>
@@ -3076,7 +3471,7 @@
         <v>48987816.44054687</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>23</v>
       </c>
@@ -3121,7 +3516,7 @@
         <v>39316714.654355474</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>24</v>
       </c>
@@ -3166,7 +3561,7 @@
         <v>18993855.739027858</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>25</v>
       </c>
@@ -3211,7 +3606,7 @@
         <v>1278698.0498200224</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>26</v>
       </c>
@@ -3256,7 +3651,7 @@
         <v>41419444.860364981</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>27</v>
       </c>
@@ -3301,7 +3696,7 @@
         <v>5983164.2193959048</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>28</v>
       </c>
@@ -3346,7 +3741,7 @@
         <v>1117072.1500253298</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>29</v>
       </c>
@@ -3391,7 +3786,7 @@
         <v>27754694.469891053</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
         <v>177</v>
       </c>
@@ -3448,7 +3843,7 @@
         <v>2506425481.7464986</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="19"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -3464,7 +3859,7 @@
       <c r="M54" s="20"/>
       <c r="N54" s="15"/>
     </row>
-    <row r="55" spans="1:14" s="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" s="54" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A55" s="23" t="s">
         <v>178</v>
       </c>
@@ -3509,7 +3904,7 @@
         <v>3327901005.462697</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="56" t="s">
         <v>179</v>
       </c>
@@ -3527,7 +3922,7 @@
       <c r="M56" s="22"/>
       <c r="N56" s="25"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="22"/>
       <c r="C57" s="22"/>
@@ -3542,7 +3937,7 @@
       <c r="L57" s="22"/>
       <c r="M57" s="22"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="23"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
@@ -3558,7 +3953,7 @@
       <c r="M58" s="22"/>
       <c r="N58" s="26"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3566,21 +3961,21 @@
       <c r="E59" s="3"/>
       <c r="K59" s="27"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7"/>
       <c r="B62" s="28" t="s">
         <v>31</v>
@@ -3622,7 +4017,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>14</v>
       </c>
@@ -3667,7 +4062,7 @@
         <v>1629629423.2470946</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
         <v>15</v>
       </c>
@@ -3712,7 +4107,7 @@
         <v>97320205.139999986</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
         <v>16</v>
       </c>
@@ -3757,7 +4152,7 @@
         <v>106532952.45</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
         <v>17</v>
       </c>
@@ -3802,7 +4197,7 @@
         <v>67851276.930000007</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
         <v>18</v>
       </c>
@@ -3847,7 +4242,7 @@
         <v>36034724.669921875</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="16" t="s">
         <v>19</v>
       </c>
@@ -3892,7 +4287,7 @@
         <v>194113417.49999994</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
         <v>20</v>
       </c>
@@ -3937,7 +4332,7 @@
         <v>67419063.810000002</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="16" t="s">
         <v>21</v>
       </c>
@@ -3982,7 +4377,7 @@
         <v>1737127.4100000001</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="s">
         <v>22</v>
       </c>
@@ -4027,7 +4422,7 @@
         <v>48544145.627812505</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
         <v>23</v>
       </c>
@@ -4072,7 +4467,7 @@
         <v>42646452.751874998</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="16" t="s">
         <v>24</v>
       </c>
@@ -4117,7 +4512,7 @@
         <v>16558960.008922119</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
         <v>25</v>
       </c>
@@ -4162,7 +4557,7 @@
         <v>1487411.2800003053</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="16" t="s">
         <v>26</v>
       </c>
@@ -4207,7 +4602,7 @@
         <v>21352954.340228729</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
         <v>27</v>
       </c>
@@ -4252,7 +4647,7 @@
         <v>5391788.3292224128</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="16" t="s">
         <v>28</v>
       </c>
@@ -4297,7 +4692,7 @@
         <v>1120937.3500427245</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
         <v>29</v>
       </c>
@@ -4342,7 +4737,7 @@
         <v>17812082.599844053</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="17" t="s">
         <v>177</v>
       </c>
@@ -4399,7 +4794,7 @@
         <v>2355552923.4449644</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="19"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -4415,7 +4810,7 @@
       <c r="M80" s="20"/>
       <c r="N80" s="15"/>
     </row>
-    <row r="81" spans="1:14" s="54" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" s="54" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A81" s="23" t="s">
         <v>178</v>
       </c>
@@ -4460,7 +4855,7 @@
         <v>3114472065.8363776</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="56" t="s">
         <v>179</v>
       </c>
@@ -4478,7 +4873,7 @@
       <c r="M82" s="22"/>
       <c r="N82" s="25"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="23"/>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -4494,21 +4889,21 @@
       <c r="M83" s="22"/>
       <c r="N83" s="22"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="33"/>
       <c r="B88" s="34" t="s">
         <v>45</v>
@@ -4550,7 +4945,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="37" t="s">
         <v>58</v>
       </c>
@@ -4595,7 +4990,7 @@
         <v>1433535933.3356047</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="37" t="s">
         <v>15</v>
       </c>
@@ -4640,7 +5035,7 @@
         <v>90362483.977830023</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="37" t="s">
         <v>16</v>
       </c>
@@ -4685,7 +5080,7 @@
         <v>88877068.601977512</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="37" t="s">
         <v>59</v>
       </c>
@@ -4730,7 +5125,7 @@
         <v>64282215.869108588</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
         <v>18</v>
       </c>
@@ -4775,7 +5170,7 @@
         <v>26709645.130000003</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="38" t="s">
         <v>19</v>
       </c>
@@ -4820,7 +5215,7 @@
         <v>81764118.52659449</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="38" t="s">
         <v>60</v>
       </c>
@@ -4865,7 +5260,7 @@
         <v>54473602.395849973</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="37" t="s">
         <v>21</v>
       </c>
@@ -4910,7 +5305,7 @@
         <v>3797615.5919085909</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="37" t="s">
         <v>22</v>
       </c>
@@ -4955,7 +5350,7 @@
         <v>40254724.149559855</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="37" t="s">
         <v>61</v>
       </c>
@@ -5000,7 +5395,7 @@
         <v>32569624.831869937</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="37" t="s">
         <v>62</v>
       </c>
@@ -5045,7 +5440,7 @@
         <v>11311550.066261822</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="37" t="s">
         <v>63</v>
       </c>
@@ -5090,7 +5485,7 @@
         <v>59008557.043434553</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="17" t="s">
         <v>177</v>
       </c>
@@ -5147,7 +5542,7 @@
         <v>1986947139.52</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="19"/>
       <c r="B102" s="20"/>
       <c r="C102" s="20"/>
@@ -5163,7 +5558,7 @@
       <c r="M102" s="20"/>
       <c r="N102" s="15"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="23" t="s">
         <v>178</v>
       </c>
@@ -5208,7 +5603,7 @@
         <v>2614165423.807055</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="56" t="s">
         <v>179</v>
       </c>
@@ -5226,7 +5621,7 @@
       <c r="M104" s="22"/>
       <c r="N104" s="39"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="23"/>
       <c r="B105" s="22"/>
       <c r="C105" s="22"/>
@@ -5242,7 +5637,7 @@
       <c r="M105" s="22"/>
       <c r="N105" s="39"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="23"/>
       <c r="B106" s="22"/>
       <c r="C106" s="22"/>
@@ -5258,7 +5653,7 @@
       <c r="M106" s="22"/>
       <c r="N106" s="39"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="23"/>
       <c r="B107" s="22"/>
       <c r="C107" s="22"/>
@@ -5274,21 +5669,21 @@
       <c r="M107" s="22"/>
       <c r="N107" s="39"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="33"/>
       <c r="B110" s="34" t="s">
         <v>65</v>
@@ -5330,7 +5725,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="37" t="s">
         <v>58</v>
       </c>
@@ -5375,7 +5770,7 @@
         <v>1264402244.1700001</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="37" t="s">
         <v>15</v>
       </c>
@@ -5420,7 +5815,7 @@
         <v>69966398.959999993</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="37" t="s">
         <v>16</v>
       </c>
@@ -5465,7 +5860,7 @@
         <v>80486033.939999998</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="37" t="s">
         <v>59</v>
       </c>
@@ -5510,7 +5905,7 @@
         <v>59765393.719999991</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="37" t="s">
         <v>21</v>
       </c>
@@ -5555,7 +5950,7 @@
         <v>3962681.3900000006</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="37" t="s">
         <v>22</v>
       </c>
@@ -5600,7 +5995,7 @@
         <v>32302002.170000002</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="37" t="s">
         <v>61</v>
       </c>
@@ -5645,7 +6040,7 @@
         <v>27793145.640000001</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="37" t="s">
         <v>62</v>
       </c>
@@ -5690,7 +6085,7 @@
         <v>51188695.269999996</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="37" t="s">
         <v>63</v>
       </c>
@@ -5735,7 +6130,7 @@
         <v>131950342.88999999</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="17" t="s">
         <v>177</v>
       </c>
@@ -5792,7 +6187,7 @@
         <v>1721816938.1500001</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="19"/>
       <c r="B121" s="20"/>
       <c r="C121" s="20"/>
@@ -5808,7 +6203,7 @@
       <c r="M121" s="20"/>
       <c r="N121" s="15"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="23" t="s">
         <v>178</v>
       </c>
@@ -5853,7 +6248,7 @@
         <v>2358653339.9315071</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="56" t="s">
         <v>179</v>
       </c>
@@ -5871,7 +6266,7 @@
       <c r="M123" s="22"/>
       <c r="N123" s="25"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B124" s="22"/>
       <c r="C124" s="22"/>
       <c r="D124" s="22"/>
@@ -5886,7 +6281,7 @@
       <c r="M124" s="22"/>
       <c r="N124" s="25"/>
     </row>
-    <row r="125" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="23"/>
       <c r="B125" s="22"/>
       <c r="C125" s="22"/>
@@ -5897,14 +6292,14 @@
       <c r="H125" s="22"/>
       <c r="I125" s="22"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="33"/>
       <c r="B127" s="34" t="s">
         <v>79</v>
@@ -5946,7 +6341,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="37" t="s">
         <v>58</v>
       </c>
@@ -5991,7 +6386,7 @@
         <v>1171722816.4558117</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="37" t="s">
         <v>15</v>
       </c>
@@ -6036,7 +6431,7 @@
         <v>67743378.859331638</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="37" t="s">
         <v>16</v>
       </c>
@@ -6081,7 +6476,7 @@
         <v>85475721.776180759</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="37" t="s">
         <v>59</v>
       </c>
@@ -6126,7 +6521,7 @@
         <v>51761658.095062025</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="37" t="s">
         <v>21</v>
       </c>
@@ -6171,7 +6566,7 @@
         <v>4498014.6300000008</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="37" t="s">
         <v>22</v>
       </c>
@@ -6216,7 +6611,7 @@
         <v>29045556.53300323</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="37" t="s">
         <v>61</v>
       </c>
@@ -6261,7 +6656,7 @@
         <v>26244943.873427991</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="37" t="s">
         <v>62</v>
       </c>
@@ -6306,7 +6701,7 @@
         <v>43530982.57</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="37" t="s">
         <v>63</v>
       </c>
@@ -6351,7 +6746,7 @@
         <v>122735893.0171825</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="17" t="s">
         <v>177</v>
       </c>
@@ -6408,7 +6803,7 @@
         <v>1602758965.8099999</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="19"/>
       <c r="B138" s="20"/>
       <c r="C138" s="20"/>
@@ -6424,7 +6819,7 @@
       <c r="M138" s="20"/>
       <c r="N138" s="15"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="23" t="s">
         <v>178</v>
       </c>
@@ -6469,14 +6864,14 @@
         <v>2195560227.1369863</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="43"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="56" t="s">
         <v>179</v>
       </c>
@@ -6485,35 +6880,35 @@
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="43"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="43"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" s="43"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="33"/>
       <c r="B146" s="34" t="s">
         <v>93</v>
@@ -6555,7 +6950,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="37" t="s">
         <v>58</v>
       </c>
@@ -6600,7 +6995,7 @@
         <v>1029538295.8900001</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="37" t="s">
         <v>15</v>
       </c>
@@ -6645,7 +7040,7 @@
         <v>75848001.739999995</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="37" t="s">
         <v>16</v>
       </c>
@@ -6690,7 +7085,7 @@
         <v>89135625.24000001</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="37" t="s">
         <v>59</v>
       </c>
@@ -6735,7 +7130,7 @@
         <v>44490393.460000001</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="37" t="s">
         <v>21</v>
       </c>
@@ -6780,7 +7175,7 @@
         <v>5016766.9399999995</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="37" t="s">
         <v>22</v>
       </c>
@@ -6825,7 +7220,7 @@
         <v>28447182.509999998</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="37" t="s">
         <v>61</v>
       </c>
@@ -6870,7 +7265,7 @@
         <v>24557415.07</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="37" t="s">
         <v>62</v>
       </c>
@@ -6915,7 +7310,7 @@
         <v>41445957.000000007</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="37" t="s">
         <v>63</v>
       </c>
@@ -6960,7 +7355,7 @@
         <v>104755128.37</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="17" t="s">
         <v>177</v>
       </c>
@@ -7017,7 +7412,7 @@
         <v>1443234766.2200003</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="19"/>
       <c r="B157" s="20"/>
       <c r="C157" s="20"/>
@@ -7033,7 +7428,7 @@
       <c r="M157" s="20"/>
       <c r="N157" s="15"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="23" t="s">
         <v>178</v>
       </c>
@@ -7078,14 +7473,14 @@
         <v>1977033926.3287671</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="43"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="56" t="s">
         <v>179</v>
       </c>
@@ -7094,14 +7489,14 @@
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="43"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" s="43"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -7117,14 +7512,14 @@
       <c r="M162" s="44"/>
       <c r="N162" s="45"/>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="43"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>106</v>
       </c>
@@ -7136,7 +7531,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" s="33"/>
       <c r="B165" s="34" t="s">
         <v>108</v>
@@ -7178,7 +7573,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" s="37" t="s">
         <v>58</v>
       </c>
@@ -7223,7 +7618,7 @@
         <v>945270430.07999992</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" s="37" t="s">
         <v>15</v>
       </c>
@@ -7268,7 +7663,7 @@
         <v>79917610.359999999</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" s="37" t="s">
         <v>16</v>
       </c>
@@ -7313,7 +7708,7 @@
         <v>88374971.439999998</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" s="37" t="s">
         <v>59</v>
       </c>
@@ -7358,7 +7753,7 @@
         <v>37827672.359999999</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" s="37" t="s">
         <v>21</v>
       </c>
@@ -7403,7 +7798,7 @@
         <v>5878081.8000000007</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" s="37" t="s">
         <v>22</v>
       </c>
@@ -7448,7 +7843,7 @@
         <v>22034353.940000005</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" s="37" t="s">
         <v>61</v>
       </c>
@@ -7493,7 +7888,7 @@
         <v>22894856.870000001</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" s="37" t="s">
         <v>62</v>
       </c>
@@ -7538,7 +7933,7 @@
         <v>35454906.18</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" s="37" t="s">
         <v>121</v>
       </c>
@@ -7583,7 +7978,7 @@
         <v>62473667.139999993</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="17" t="s">
         <v>177</v>
       </c>
@@ -7641,7 +8036,7 @@
       </c>
       <c r="P175" s="59"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" s="19"/>
       <c r="B176" s="20"/>
       <c r="C176" s="20"/>
@@ -7658,7 +8053,7 @@
       <c r="N176" s="15"/>
       <c r="P176" s="59"/>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" s="23" t="s">
         <v>178</v>
       </c>
@@ -7704,7 +8099,7 @@
       </c>
       <c r="P177" s="59"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="41"/>
       <c r="C178" s="41"/>
@@ -7721,7 +8116,7 @@
       <c r="N178" s="42"/>
       <c r="P178" s="59"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" s="56" t="s">
         <v>179</v>
       </c>
@@ -7740,7 +8135,7 @@
       <c r="N179" s="42"/>
       <c r="P179" s="59"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="41"/>
       <c r="C180" s="41"/>
@@ -7756,7 +8151,7 @@
       <c r="M180" s="41"/>
       <c r="N180" s="42"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" s="43"/>
       <c r="B181" s="44"/>
       <c r="C181" s="44"/>
@@ -7772,19 +8167,19 @@
       <c r="M181" s="44"/>
       <c r="N181" s="45"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" s="46"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" s="33"/>
       <c r="B184" s="34" t="s">
         <v>123</v>
@@ -7826,7 +8221,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" s="37" t="s">
         <v>58</v>
       </c>
@@ -7871,7 +8266,7 @@
         <v>865991858.57000005</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" s="37" t="s">
         <v>15</v>
       </c>
@@ -7916,7 +8311,7 @@
         <v>78520193.030000001</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" s="37" t="s">
         <v>16</v>
       </c>
@@ -7961,7 +8356,7 @@
         <v>82394415.969999984</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" s="37" t="s">
         <v>59</v>
       </c>
@@ -8006,7 +8401,7 @@
         <v>31843905.100000001</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" s="37" t="s">
         <v>21</v>
       </c>
@@ -8051,7 +8446,7 @@
         <v>6111505.2699999996</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" s="37" t="s">
         <v>22</v>
       </c>
@@ -8096,7 +8491,7 @@
         <v>12253407.24</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" s="37" t="s">
         <v>61</v>
       </c>
@@ -8141,7 +8536,7 @@
         <v>21865779.170000002</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" s="37" t="s">
         <v>62</v>
       </c>
@@ -8186,7 +8581,7 @@
         <v>31742902.190000001</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" s="37" t="s">
         <v>121</v>
       </c>
@@ -8231,7 +8626,7 @@
         <v>46274050.600000001</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="17" t="s">
         <v>177</v>
       </c>
@@ -8288,12 +8683,12 @@
         <v>1176998017.1399999</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" s="46"/>
       <c r="B195" s="47"/>
       <c r="C195" s="47"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" s="23" t="s">
         <v>178</v>
       </c>
@@ -8338,7 +8733,7 @@
         <v>1612326050.8767123</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="41"/>
       <c r="C197" s="41"/>
@@ -8354,7 +8749,7 @@
       <c r="M197" s="41"/>
       <c r="N197" s="42"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" s="56" t="s">
         <v>179</v>
       </c>
@@ -8372,7 +8767,7 @@
       <c r="M198" s="41"/>
       <c r="N198" s="42"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="41"/>
       <c r="C199" s="41"/>
@@ -8388,7 +8783,7 @@
       <c r="M199" s="41"/>
       <c r="N199" s="42"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="41"/>
       <c r="C200" s="41"/>
@@ -8404,7 +8799,7 @@
       <c r="M200" s="41"/>
       <c r="N200" s="42"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B201" s="13"/>
       <c r="C201" s="13"/>
       <c r="D201" s="13"/>
@@ -8419,12 +8814,12 @@
       <c r="M201" s="13"/>
       <c r="N201" s="48"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" s="33"/>
       <c r="B203" s="34" t="s">
         <v>137</v>
@@ -8466,7 +8861,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" s="37" t="s">
         <v>58</v>
       </c>
@@ -8511,7 +8906,7 @@
         <v>815027193.09702075</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" s="37" t="s">
         <v>15</v>
       </c>
@@ -8556,7 +8951,7 @@
         <v>82399671.853350788</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" s="37" t="s">
         <v>16</v>
       </c>
@@ -8601,7 +8996,7 @@
         <v>79969126.833614811</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" s="37" t="s">
         <v>59</v>
       </c>
@@ -8646,7 +9041,7 @@
         <v>29795742.54104111</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" s="37" t="s">
         <v>21</v>
       </c>
@@ -8691,7 +9086,7 @@
         <v>6031301.9145287024</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" s="37" t="s">
         <v>22</v>
       </c>
@@ -8736,7 +9131,7 @@
         <v>12629890.853365934</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" s="37" t="s">
         <v>61</v>
       </c>
@@ -8781,7 +9176,7 @@
         <v>22261014.431946877</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" s="37" t="s">
         <v>62</v>
       </c>
@@ -8826,7 +9221,7 @@
         <v>51686350.598157667</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" s="37" t="s">
         <v>121</v>
       </c>
@@ -8871,7 +9266,7 @@
         <v>32713584.198626395</v>
       </c>
     </row>
-    <row r="213" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="17" t="s">
         <v>177</v>
       </c>
@@ -8928,12 +9323,12 @@
         <v>1132513876.3216531</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" s="46"/>
       <c r="B214" s="47"/>
       <c r="C214" s="47"/>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" s="23" t="s">
         <v>178</v>
       </c>
@@ -8978,17 +9373,17 @@
         <v>1551388871.6734974</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" s="56" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" s="33"/>
       <c r="B222" s="34" t="s">
         <v>151</v>
@@ -9030,7 +9425,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" s="37" t="s">
         <v>58</v>
       </c>
@@ -9075,7 +9470,7 @@
         <v>790319004.21321607</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" s="37" t="s">
         <v>15</v>
       </c>
@@ -9120,7 +9515,7 @@
         <v>84778996.495670602</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" s="37" t="s">
         <v>16</v>
       </c>
@@ -9165,7 +9560,7 @@
         <v>75011370.834969684</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" s="37" t="s">
         <v>59</v>
       </c>
@@ -9210,7 +9605,7 @@
         <v>25234283.660297569</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" s="37" t="s">
         <v>21</v>
       </c>
@@ -9255,7 +9650,7 @@
         <v>5807953.8290032241</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" s="37" t="s">
         <v>22</v>
       </c>
@@ -9300,7 +9695,7 @@
         <v>8862397.8201409392</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" s="37" t="s">
         <v>61</v>
       </c>
@@ -9345,7 +9740,7 @@
         <v>20686128.178243298</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" s="37" t="s">
         <v>62</v>
       </c>
@@ -9390,7 +9785,7 @@
         <v>39849701.244580299</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" s="37" t="s">
         <v>121</v>
       </c>
@@ -9435,7 +9830,7 @@
         <v>24862415.673596427</v>
       </c>
     </row>
-    <row r="232" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="17" t="s">
         <v>177</v>
       </c>
@@ -9492,7 +9887,7 @@
         <v>1075412251.9497182</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" s="23" t="s">
         <v>178</v>
       </c>
@@ -9537,15 +9932,15 @@
         <v>1473167468.4242713</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" s="56" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" s="46"/>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" s="46"/>
       <c r="B239" s="47"/>
       <c r="C239" s="47"/>
@@ -9554,4 +9949,1036 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E503029-0EE4-4BE0-A1FE-DB7541D4C5BD}">
+  <dimension ref="A1:B127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="41">
+        <v>116296111.34246576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="41">
+        <v>102073969.64383562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="41">
+        <v>148057297.21917808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="41">
+        <v>108925079.53424656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="41">
+        <v>152530522.77568495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="41">
+        <v>150490182.77331001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="41">
+        <v>122813372.66319652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="41">
+        <v>116898974.72857605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="41">
+        <v>110161512.4552819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="41">
+        <v>114929307.64181006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="41">
+        <v>114112106.043617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="41">
+        <v>115879031.60306934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="41">
+        <v>126547924.76833092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="41">
+        <v>111439693.9395095</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="41">
+        <v>160769388.22577652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="41">
+        <v>109795904.76521011</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="41">
+        <v>139037358.0576466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="41">
+        <v>158461584.24622571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="41">
+        <v>148746542.18128783</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="41">
+        <v>134426263.78082189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="41">
+        <v>120595507.50320895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="41">
+        <v>108920900.49315071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" s="41">
+        <v>111832837.02739729</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="41">
+        <v>120814966.68493155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="41">
+        <v>124272790.84931506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" s="41">
+        <v>112507676.71232875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" s="41">
+        <v>163608656.94520548</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" s="41">
+        <v>104139901.2328767</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="41">
+        <v>147630839.43835613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" s="41">
+        <v>167836910.50684929</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>211</v>
+      </c>
+      <c r="B32" s="41">
+        <v>141514832.20547947</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="41">
+        <v>137812297.91780823</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" s="41">
+        <v>129606613.15068492</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B35" s="41">
+        <v>122038395.38356166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" s="41">
+        <v>126931823.35616438</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B37" s="41">
+        <v>134425313.1780822</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="41">
+        <v>133315673.95890413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39" s="41">
+        <v>122185929.47945207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" s="41">
+        <v>176798413.94520548</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" s="41">
+        <v>121569937.50684933</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" s="41">
+        <v>142117583.52054796</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="41">
+        <v>190599671.78082192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" s="41">
+        <v>164237596.630137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" s="41">
+        <v>156746116.78082192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46" s="41">
+        <v>144167840.3561644</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47" s="41">
+        <v>136987864.80821919</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48" s="41">
+        <v>147041741.8219178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" s="41">
+        <v>145226903.61643836</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>229</v>
+      </c>
+      <c r="B50" s="41">
+        <v>153112403.39726031</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>230</v>
+      </c>
+      <c r="B51" s="41">
+        <v>139521526.06849316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52" s="41">
+        <v>194738939.79452056</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B53" s="41">
+        <v>133903979.50684926</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>233</v>
+      </c>
+      <c r="B54" s="41">
+        <v>167977161.2739726</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>234</v>
+      </c>
+      <c r="B55" s="41">
+        <v>196582016.17808223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>235</v>
+      </c>
+      <c r="B56" s="41">
+        <v>179865524.98630136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>236</v>
+      </c>
+      <c r="B57" s="41">
+        <v>171248511.50684932</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>237</v>
+      </c>
+      <c r="B58" s="41">
+        <v>154057557.32876709</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59" s="41">
+        <v>151854805.19178081</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>239</v>
+      </c>
+      <c r="B60" s="41">
+        <v>161396905.65753427</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>240</v>
+      </c>
+      <c r="B61" s="41">
+        <v>172774595.43835616</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>241</v>
+      </c>
+      <c r="B62" s="41">
+        <v>167072313.86301371</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>242</v>
+      </c>
+      <c r="B63" s="41">
+        <v>149456403.50684929</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>243</v>
+      </c>
+      <c r="B64" s="41">
+        <v>219982090.80821916</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>244</v>
+      </c>
+      <c r="B65" s="41">
+        <v>148346670.61643839</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>245</v>
+      </c>
+      <c r="B66" s="41">
+        <v>181476596.78082192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>246</v>
+      </c>
+      <c r="B67" s="41">
+        <v>218044605.08219177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>247</v>
+      </c>
+      <c r="B68" s="41">
+        <v>194077789.89041096</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>248</v>
+      </c>
+      <c r="B69" s="41">
+        <v>188773373.89041099</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>249</v>
+      </c>
+      <c r="B70" s="41">
+        <v>184240310.73972601</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>250</v>
+      </c>
+      <c r="B71" s="41">
+        <v>182156341.49315074</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>251</v>
+      </c>
+      <c r="B72" s="41">
+        <v>180748866.04109588</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>252</v>
+      </c>
+      <c r="B73" s="41">
+        <v>181184864.42465749</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>253</v>
+      </c>
+      <c r="B74" s="22">
+        <v>181511839.78082192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>254</v>
+      </c>
+      <c r="B75" s="22">
+        <v>162963998.83561644</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>255</v>
+      </c>
+      <c r="B76" s="22">
+        <v>239449416.24657533</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>256</v>
+      </c>
+      <c r="B77" s="22">
+        <v>153861298.79452059</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>257</v>
+      </c>
+      <c r="B78" s="22">
+        <v>199869024.38356161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>258</v>
+      </c>
+      <c r="B79" s="22">
+        <v>237360295.05479452</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>259</v>
+      </c>
+      <c r="B80" s="22">
+        <v>211291653.31506851</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>260</v>
+      </c>
+      <c r="B81" s="22">
+        <v>202203082.10958904</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>261</v>
+      </c>
+      <c r="B82" s="22">
+        <v>188938754.41095892</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>262</v>
+      </c>
+      <c r="B83" s="22">
+        <v>184656793.56164381</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>263</v>
+      </c>
+      <c r="B84" s="22">
+        <v>197626087.34246576</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>264</v>
+      </c>
+      <c r="B85" s="22">
+        <v>198921096.09589037</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>265</v>
+      </c>
+      <c r="B86" s="22">
+        <v>202261090.90341893</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>266</v>
+      </c>
+      <c r="B87" s="22">
+        <v>183774417.76149192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>267</v>
+      </c>
+      <c r="B88" s="22">
+        <v>255760134.69926542</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>268</v>
+      </c>
+      <c r="B89" s="22">
+        <v>172404954.20244312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>269</v>
+      </c>
+      <c r="B90" s="22">
+        <v>195892436.49541396</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>270</v>
+      </c>
+      <c r="B91" s="22">
+        <v>266349418.20908126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>271</v>
+      </c>
+      <c r="B92" s="22">
+        <v>234592439.34926778</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>272</v>
+      </c>
+      <c r="B93" s="22">
+        <v>229477136.64076272</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>273</v>
+      </c>
+      <c r="B94" s="22">
+        <v>215145870.47772056</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>274</v>
+      </c>
+      <c r="B95" s="22">
+        <v>223492676.17715701</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>275</v>
+      </c>
+      <c r="B96" s="22">
+        <v>220865009.5258238</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>276</v>
+      </c>
+      <c r="B97" s="22">
+        <v>214149839.36520872</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>277</v>
+      </c>
+      <c r="B98" s="22">
+        <v>231988686.9733223</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>278</v>
+      </c>
+      <c r="B99" s="22">
+        <v>222724820.49977902</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>279</v>
+      </c>
+      <c r="B100" s="22">
+        <v>309641621.65353584</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>280</v>
+      </c>
+      <c r="B101" s="22">
+        <v>222756847.5722999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>281</v>
+      </c>
+      <c r="B102" s="22">
+        <v>247885537.29355735</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>282</v>
+      </c>
+      <c r="B103" s="22">
+        <v>323355331.78909504</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>283</v>
+      </c>
+      <c r="B104" s="22">
+        <v>273890527.80221075</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>284</v>
+      </c>
+      <c r="B105" s="22">
+        <v>270186023.80603641</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>285</v>
+      </c>
+      <c r="B106" s="22">
+        <v>255020417.17662331</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>286</v>
+      </c>
+      <c r="B107" s="22">
+        <v>243913778.93415669</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>287</v>
+      </c>
+      <c r="B108" s="22">
+        <v>260903247.80902356</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>288</v>
+      </c>
+      <c r="B109" s="22">
+        <v>252205224.52673739</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>289</v>
+      </c>
+      <c r="B110" s="24">
+        <v>261175574.85542172</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>290</v>
+      </c>
+      <c r="B111" s="22">
+        <v>238847784.7068224</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>291</v>
+      </c>
+      <c r="B112" s="22">
+        <v>350772633.73923761</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>292</v>
+      </c>
+      <c r="B113" s="22">
+        <v>244004467.78313252</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>293</v>
+      </c>
+      <c r="B114" s="22">
+        <v>242386734.14993247</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>294</v>
+      </c>
+      <c r="B115" s="22">
+        <v>323885053</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>295</v>
+      </c>
+      <c r="B116" s="22">
+        <v>306858904.57706732</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>296</v>
+      </c>
+      <c r="B117" s="22">
+        <v>296620607.98967284</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>297</v>
+      </c>
+      <c r="B118" s="22">
+        <v>261496937.28707874</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>298</v>
+      </c>
+      <c r="B119" s="22">
+        <v>277548896.78242534</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>299</v>
+      </c>
+      <c r="B120" s="22">
+        <v>285947271.15734667</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>300</v>
+      </c>
+      <c r="B121" s="22">
+        <v>238356139.43455932</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>301</v>
+      </c>
+      <c r="B122" s="24">
+        <v>238326259.79716846</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>302</v>
+      </c>
+      <c r="B123" s="22">
+        <v>240033577.61876804</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>303</v>
+      </c>
+      <c r="B124" s="22">
+        <v>370387571.4054274</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>304</v>
+      </c>
+      <c r="B125" s="22">
+        <v>251883087.07136613</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>305</v>
+      </c>
+      <c r="B126" s="22">
+        <v>272544062.2513783</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>306</v>
+      </c>
+      <c r="B127" s="22">
+        <v>301470520.62855065</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>